--- a/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42643</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8600</v>
+        <v>4300</v>
       </c>
       <c r="E8" s="3">
-        <v>6100</v>
+        <v>8400</v>
       </c>
       <c r="F8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G8" s="3">
         <v>2100</v>
       </c>
-      <c r="G8" s="3">
-        <v>2400</v>
-      </c>
       <c r="H8" s="3">
-        <v>5900</v>
+        <v>2300</v>
       </c>
       <c r="I8" s="3">
-        <v>1800</v>
+        <v>5800</v>
       </c>
       <c r="J8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K8" s="3">
         <v>2300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6500</v>
+        <v>2600</v>
       </c>
       <c r="E9" s="3">
-        <v>3900</v>
+        <v>6400</v>
       </c>
       <c r="F9" s="3">
-        <v>2700</v>
+        <v>3800</v>
       </c>
       <c r="G9" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H9" s="3">
         <v>2100</v>
       </c>
-      <c r="H9" s="3">
-        <v>5300</v>
-      </c>
       <c r="I9" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J9" s="3">
         <v>1400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="3">
         <v>2100</v>
       </c>
-      <c r="E10" s="3">
-        <v>2200</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +867,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
       </c>
       <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>100</v>
-      </c>
-      <c r="J12" s="3">
-        <v>200</v>
       </c>
       <c r="K12" s="3">
         <v>200</v>
       </c>
       <c r="L12" s="3">
+        <v>200</v>
+      </c>
+      <c r="M12" s="3">
         <v>600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +988,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>10900</v>
+        <v>5200</v>
       </c>
       <c r="E17" s="3">
-        <v>7300</v>
+        <v>10600</v>
       </c>
       <c r="F17" s="3">
-        <v>4000</v>
+        <v>7100</v>
       </c>
       <c r="G17" s="3">
         <v>3900</v>
       </c>
       <c r="H17" s="3">
-        <v>7400</v>
+        <v>3800</v>
       </c>
       <c r="I17" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
-        <v>-1900</v>
-      </c>
       <c r="G18" s="3">
-        <v>-1500</v>
+        <v>-1800</v>
       </c>
       <c r="H18" s="3">
         <v>-1500</v>
       </c>
       <c r="I18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1111,8 +1144,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1120,14 +1154,14 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1149,46 +1183,52 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3">
-        <v>-2400</v>
-      </c>
       <c r="G21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1199,7 +1239,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1225,55 +1265,61 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
-        <v>-2500</v>
-      </c>
       <c r="G23" s="3">
-        <v>-1500</v>
+        <v>-2400</v>
       </c>
       <c r="H23" s="3">
         <v>-1500</v>
       </c>
       <c r="I23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1301,8 +1347,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-2300</v>
+        <v>-1000</v>
       </c>
       <c r="E26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
-        <v>-2500</v>
-      </c>
       <c r="G26" s="3">
-        <v>-1500</v>
+        <v>-2400</v>
       </c>
       <c r="H26" s="3">
         <v>-1500</v>
       </c>
       <c r="I26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-2200</v>
+        <v>-900</v>
       </c>
       <c r="E27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
-        <v>-1500</v>
-      </c>
       <c r="H27" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="I27" s="3">
-        <v>-1000</v>
+        <v>-1400</v>
       </c>
       <c r="J27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1567,8 +1634,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1576,14 +1646,14 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1605,46 +1675,52 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-2200</v>
+        <v>-900</v>
       </c>
       <c r="E33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
-        <v>-1500</v>
-      </c>
       <c r="H33" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="I33" s="3">
-        <v>-1000</v>
+        <v>-1400</v>
       </c>
       <c r="J33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-2200</v>
+        <v>-900</v>
       </c>
       <c r="E35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
-        <v>-1500</v>
-      </c>
       <c r="H35" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="I35" s="3">
-        <v>-1000</v>
+        <v>-1400</v>
       </c>
       <c r="J35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42643</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1700</v>
       </c>
-      <c r="F41" s="3">
-        <v>6500</v>
-      </c>
       <c r="G41" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="H41" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1870,69 +1960,75 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="E43" s="3">
-        <v>7600</v>
+        <v>12600</v>
       </c>
       <c r="F43" s="3">
-        <v>5100</v>
+        <v>7400</v>
       </c>
       <c r="G43" s="3">
-        <v>6400</v>
+        <v>17600</v>
       </c>
       <c r="H43" s="3">
-        <v>7800</v>
+        <v>6300</v>
       </c>
       <c r="I43" s="3">
-        <v>6700</v>
+        <v>7700</v>
       </c>
       <c r="J43" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K43" s="3">
         <v>7100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
       <c r="F44" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H44" s="3">
         <v>700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>700</v>
-      </c>
-      <c r="J44" s="3">
-        <v>400</v>
       </c>
       <c r="K44" s="3">
         <v>400</v>
@@ -1941,113 +2037,122 @@
         <v>400</v>
       </c>
       <c r="M44" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N44" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>4900</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>1900</v>
+        <v>4700</v>
       </c>
       <c r="G45" s="3">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="H45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I45" s="3">
         <v>2900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="E46" s="3">
-        <v>14200</v>
+        <v>13700</v>
       </c>
       <c r="F46" s="3">
-        <v>14500</v>
+        <v>13900</v>
       </c>
       <c r="G46" s="3">
-        <v>17300</v>
+        <v>27800</v>
       </c>
       <c r="H46" s="3">
-        <v>12500</v>
+        <v>16900</v>
       </c>
       <c r="I46" s="3">
-        <v>10600</v>
+        <v>12200</v>
       </c>
       <c r="J46" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K46" s="3">
         <v>9800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="E47" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="F47" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G47" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H47" s="3">
         <v>600</v>
       </c>
-      <c r="G47" s="3">
-        <v>600</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>300</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
@@ -2055,33 +2160,36 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E48" s="3">
         <v>3700</v>
       </c>
       <c r="F48" s="3">
-        <v>2200</v>
+        <v>3600</v>
       </c>
       <c r="G48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3">
-        <v>1200</v>
-      </c>
       <c r="I48" s="3">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
@@ -2098,8 +2206,11 @@
       <c r="N48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2113,7 +2224,7 @@
         <v>200</v>
       </c>
       <c r="G49" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
@@ -2121,8 +2232,8 @@
       <c r="I49" s="3">
         <v>200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>40</v>
+      <c r="J49" s="3">
+        <v>200</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>40</v>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2329,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22500</v>
+        <v>22800</v>
       </c>
       <c r="E54" s="3">
-        <v>22800</v>
+        <v>22000</v>
       </c>
       <c r="F54" s="3">
-        <v>17500</v>
+        <v>22200</v>
       </c>
       <c r="G54" s="3">
-        <v>19500</v>
+        <v>39000</v>
       </c>
       <c r="H54" s="3">
-        <v>14100</v>
+        <v>19000</v>
       </c>
       <c r="I54" s="3">
+        <v>13800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K54" s="3">
+        <v>10200</v>
+      </c>
+      <c r="L54" s="3">
         <v>11100</v>
       </c>
-      <c r="J54" s="3">
-        <v>10200</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
+        <v>12600</v>
+      </c>
+      <c r="N54" s="3">
         <v>11100</v>
       </c>
-      <c r="L54" s="3">
-        <v>12600</v>
-      </c>
-      <c r="M54" s="3">
-        <v>11100</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,180 +2488,193 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H58" s="3">
         <v>1400</v>
       </c>
-      <c r="G58" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1300</v>
-      </c>
       <c r="I58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2100</v>
+        <v>2900</v>
       </c>
       <c r="E59" s="3">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="F59" s="3">
-        <v>1100</v>
+        <v>2500</v>
       </c>
       <c r="G59" s="3">
-        <v>1300</v>
+        <v>3100</v>
       </c>
       <c r="H59" s="3">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="I59" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="J59" s="3">
         <v>1600</v>
       </c>
       <c r="K59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6000</v>
+        <v>7100</v>
       </c>
       <c r="E60" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="F60" s="3">
-        <v>3700</v>
+        <v>5600</v>
       </c>
       <c r="G60" s="3">
-        <v>3900</v>
+        <v>9500</v>
       </c>
       <c r="H60" s="3">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="I60" s="3">
-        <v>5300</v>
+        <v>4900</v>
       </c>
       <c r="J60" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K60" s="3">
         <v>4200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F61" s="3">
         <v>1200</v>
       </c>
-      <c r="E61" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1300</v>
-      </c>
       <c r="G61" s="3">
-        <v>1300</v>
+        <v>2400</v>
       </c>
       <c r="H61" s="3">
         <v>1300</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2548,8 +2691,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8800</v>
+        <v>9800</v>
       </c>
       <c r="E66" s="3">
         <v>8600</v>
       </c>
       <c r="F66" s="3">
+        <v>8400</v>
+      </c>
+      <c r="G66" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H66" s="3">
         <v>6600</v>
       </c>
-      <c r="G66" s="3">
-        <v>6700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>7700</v>
-      </c>
       <c r="I66" s="3">
-        <v>6700</v>
+        <v>7500</v>
       </c>
       <c r="J66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K66" s="3">
         <v>5400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-23000</v>
+        <v>-23400</v>
       </c>
       <c r="E72" s="3">
-        <v>-20900</v>
+        <v>-22500</v>
       </c>
       <c r="F72" s="3">
-        <v>-19400</v>
+        <v>-20300</v>
       </c>
       <c r="G72" s="3">
-        <v>-17000</v>
+        <v>-42000</v>
       </c>
       <c r="H72" s="3">
-        <v>-15500</v>
+        <v>-16600</v>
       </c>
       <c r="I72" s="3">
-        <v>-14100</v>
+        <v>-15100</v>
       </c>
       <c r="J72" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-13100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13700</v>
+        <v>13000</v>
       </c>
       <c r="E76" s="3">
-        <v>14100</v>
+        <v>13400</v>
       </c>
       <c r="F76" s="3">
-        <v>10900</v>
+        <v>13800</v>
       </c>
       <c r="G76" s="3">
-        <v>12700</v>
+        <v>24000</v>
       </c>
       <c r="H76" s="3">
-        <v>6400</v>
+        <v>12400</v>
       </c>
       <c r="I76" s="3">
-        <v>4400</v>
+        <v>6300</v>
       </c>
       <c r="J76" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K76" s="3">
         <v>4800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42643</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-2200</v>
+        <v>-900</v>
       </c>
       <c r="E81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
-        <v>-1500</v>
-      </c>
       <c r="H81" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="I81" s="3">
-        <v>-1000</v>
+        <v>-1400</v>
       </c>
       <c r="J81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3243,14 +3442,14 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
-        <v>-3900</v>
-      </c>
       <c r="F89" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
-        <v>-1600</v>
-      </c>
       <c r="I89" s="3">
-        <v>-300</v>
+        <v>-1500</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>900</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,25 +3733,26 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,32 +3854,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1200</v>
       </c>
-      <c r="F94" s="3">
-        <v>-400</v>
-      </c>
       <c r="G94" s="3">
-        <v>-900</v>
+        <v>-300</v>
       </c>
       <c r="H94" s="3">
         <v>-900</v>
       </c>
       <c r="I94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -3665,8 +3895,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4076,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>2800</v>
+        <v>7300</v>
       </c>
       <c r="I100" s="3">
-        <v>800</v>
+        <v>2700</v>
       </c>
       <c r="J100" s="3">
+        <v>700</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3880,13 +4129,13 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
-        <v>300</v>
-      </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -3909,42 +4158,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1100</v>
+        <v>800</v>
       </c>
       <c r="E102" s="3">
-        <v>-4800</v>
+        <v>-1000</v>
       </c>
       <c r="F102" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="G102" s="3">
         <v>-1000</v>
       </c>
-      <c r="G102" s="3">
-        <v>6300</v>
-      </c>
       <c r="H102" s="3">
-        <v>300</v>
+        <v>6200</v>
       </c>
       <c r="I102" s="3">
         <v>300</v>
       </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
       </c>
       <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
@@ -734,25 +734,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="E8" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="F8" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="G8" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H8" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I8" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="J8" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K8" s="3">
         <v>2300</v>
@@ -775,25 +775,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E9" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="F9" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G9" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="H9" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I9" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="J9" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K9" s="3">
         <v>2200</v>
@@ -819,16 +819,16 @@
         <v>1700</v>
       </c>
       <c r="E10" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F10" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G10" s="3">
         <v>-500</v>
       </c>
       <c r="H10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I10" s="3">
         <v>600</v>
@@ -1052,25 +1052,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="E17" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="F17" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="G17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H17" s="3">
         <v>3900</v>
       </c>
-      <c r="H17" s="3">
-        <v>3800</v>
-      </c>
       <c r="I17" s="3">
-        <v>7200</v>
+        <v>7500</v>
       </c>
       <c r="J17" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="K17" s="3">
         <v>4400</v>
@@ -1096,13 +1096,13 @@
         <v>-1000</v>
       </c>
       <c r="E18" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="F18" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="G18" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="H18" s="3">
         <v>-1500</v>
@@ -1160,7 +1160,7 @@
         <v>-100</v>
       </c>
       <c r="G20" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>-1200</v>
       </c>
       <c r="G21" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="H21" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="I21" s="3">
         <v>-1500</v>
@@ -1242,7 +1242,7 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="E23" s="3">
         <v>-2200</v>
@@ -1283,13 +1283,13 @@
         <v>-1400</v>
       </c>
       <c r="G23" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="H23" s="3">
         <v>-1500</v>
       </c>
       <c r="I23" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J23" s="3">
         <v>-1000</v>
@@ -1400,19 +1400,19 @@
         <v>-1000</v>
       </c>
       <c r="E26" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="F26" s="3">
         <v>-1400</v>
       </c>
       <c r="G26" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="H26" s="3">
         <v>-1500</v>
       </c>
       <c r="I26" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J26" s="3">
         <v>-1000</v>
@@ -1438,25 +1438,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="E27" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="F27" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G27" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="H27" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="I27" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="J27" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="K27" s="3">
         <v>-2100</v>
@@ -1652,7 +1652,7 @@
         <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1684,25 +1684,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="E33" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="F33" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G33" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="H33" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="I33" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="J33" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="K33" s="3">
         <v>-2100</v>
@@ -1766,25 +1766,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="E35" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="F35" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G35" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="H35" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="I35" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="J35" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="K35" s="3">
         <v>-2100</v>
@@ -1887,19 +1887,19 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E41" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F41" s="3">
         <v>1700</v>
       </c>
       <c r="G41" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="H41" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="I41" s="3">
         <v>1200</v>
@@ -1969,25 +1969,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>12600</v>
+        <v>13100</v>
       </c>
       <c r="E43" s="3">
-        <v>12600</v>
+        <v>13100</v>
       </c>
       <c r="F43" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="G43" s="3">
-        <v>17600</v>
+        <v>18300</v>
       </c>
       <c r="H43" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="I43" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="J43" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="K43" s="3">
         <v>7100</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H44" s="3">
         <v>700</v>
@@ -2054,19 +2054,19 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F45" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="G45" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H45" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I45" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="J45" s="3">
         <v>2300</v>
@@ -2092,25 +2092,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>14300</v>
+        <v>14900</v>
       </c>
       <c r="E46" s="3">
-        <v>13700</v>
+        <v>14200</v>
       </c>
       <c r="F46" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="G46" s="3">
-        <v>27800</v>
+        <v>28900</v>
       </c>
       <c r="H46" s="3">
-        <v>16900</v>
+        <v>17500</v>
       </c>
       <c r="I46" s="3">
-        <v>12200</v>
+        <v>12600</v>
       </c>
       <c r="J46" s="3">
-        <v>10300</v>
+        <v>10700</v>
       </c>
       <c r="K46" s="3">
         <v>9800</v>
@@ -2133,16 +2133,16 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="E47" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="F47" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="G47" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="H47" s="3">
         <v>600</v>
@@ -2174,22 +2174,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="E48" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F48" s="3">
         <v>3700</v>
       </c>
-      <c r="F48" s="3">
-        <v>3600</v>
-      </c>
       <c r="G48" s="3">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="H48" s="3">
         <v>1400</v>
       </c>
       <c r="I48" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
@@ -2420,25 +2420,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E54" s="3">
         <v>22800</v>
       </c>
-      <c r="E54" s="3">
-        <v>22000</v>
-      </c>
       <c r="F54" s="3">
-        <v>22200</v>
+        <v>23100</v>
       </c>
       <c r="G54" s="3">
-        <v>39000</v>
+        <v>40500</v>
       </c>
       <c r="H54" s="3">
-        <v>19000</v>
+        <v>19700</v>
       </c>
       <c r="I54" s="3">
-        <v>13800</v>
+        <v>14300</v>
       </c>
       <c r="J54" s="3">
-        <v>10800</v>
+        <v>11300</v>
       </c>
       <c r="K54" s="3">
         <v>10200</v>
@@ -2504,16 +2504,16 @@
         <v>2200</v>
       </c>
       <c r="G57" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H57" s="3">
         <v>1200</v>
       </c>
       <c r="I57" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J57" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K57" s="3">
         <v>1200</v>
@@ -2536,7 +2536,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E58" s="3">
         <v>1900</v>
@@ -2545,16 +2545,16 @@
         <v>1000</v>
       </c>
       <c r="G58" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="H58" s="3">
         <v>1400</v>
       </c>
       <c r="I58" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="J58" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K58" s="3">
         <v>1500</v>
@@ -2577,25 +2577,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E59" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F59" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G59" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H59" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I59" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J59" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K59" s="3">
         <v>1600</v>
@@ -2618,25 +2618,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="E60" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="F60" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="G60" s="3">
-        <v>9500</v>
+        <v>9900</v>
       </c>
       <c r="H60" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="I60" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="J60" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="K60" s="3">
         <v>4200</v>
@@ -2662,13 +2662,13 @@
         <v>1100</v>
       </c>
       <c r="E61" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F61" s="3">
         <v>1200</v>
       </c>
       <c r="G61" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H61" s="3">
         <v>1300</v>
@@ -2864,25 +2864,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9800</v>
+        <v>10100</v>
       </c>
       <c r="E66" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="F66" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="G66" s="3">
-        <v>15000</v>
+        <v>15600</v>
       </c>
       <c r="H66" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="I66" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="J66" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="K66" s="3">
         <v>5400</v>
@@ -3086,25 +3086,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-23400</v>
+        <v>-24300</v>
       </c>
       <c r="E72" s="3">
-        <v>-22500</v>
+        <v>-23300</v>
       </c>
       <c r="F72" s="3">
-        <v>-20300</v>
+        <v>-21100</v>
       </c>
       <c r="G72" s="3">
-        <v>-42000</v>
+        <v>-43600</v>
       </c>
       <c r="H72" s="3">
-        <v>-16600</v>
+        <v>-17200</v>
       </c>
       <c r="I72" s="3">
-        <v>-15100</v>
+        <v>-15700</v>
       </c>
       <c r="J72" s="3">
-        <v>-13700</v>
+        <v>-14200</v>
       </c>
       <c r="K72" s="3">
         <v>-13100</v>
@@ -3250,25 +3250,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="E76" s="3">
-        <v>13400</v>
+        <v>13900</v>
       </c>
       <c r="F76" s="3">
-        <v>13800</v>
+        <v>14300</v>
       </c>
       <c r="G76" s="3">
-        <v>24000</v>
+        <v>24900</v>
       </c>
       <c r="H76" s="3">
-        <v>12400</v>
+        <v>12900</v>
       </c>
       <c r="I76" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="J76" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="K76" s="3">
         <v>4800</v>
@@ -3378,25 +3378,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="E81" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="F81" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G81" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="H81" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="I81" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="J81" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="K81" s="3">
         <v>-2100</v>
@@ -3685,10 +3685,10 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="F89" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="G89" s="3">
         <v>-700</v>
@@ -3697,10 +3697,10 @@
         <v>-300</v>
       </c>
       <c r="I89" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K89" s="3">
         <v>-500</v>
@@ -3872,7 +3872,7 @@
         <v>-1200</v>
       </c>
       <c r="G94" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H94" s="3">
         <v>-900</v>
@@ -4097,13 +4097,13 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="I100" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J100" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K100" s="3">
         <v>400</v>
@@ -4135,7 +4135,7 @@
         <v>200</v>
       </c>
       <c r="G101" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -4170,16 +4170,16 @@
         <v>800</v>
       </c>
       <c r="E102" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="F102" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="G102" s="3">
         <v>-1000</v>
       </c>
       <c r="H102" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="I102" s="3">
         <v>300</v>

--- a/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>RCON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,207 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43008</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42825</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42643</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F8" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M8" s="3">
+        <v>900</v>
+      </c>
+      <c r="N8" s="3">
         <v>4400</v>
       </c>
-      <c r="E8" s="3">
-        <v>8700</v>
-      </c>
-      <c r="F8" s="3">
-        <v>6100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I8" s="3">
-        <v>6000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2300</v>
-      </c>
-      <c r="L8" s="3">
-        <v>900</v>
-      </c>
-      <c r="M8" s="3">
-        <v>4400</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2700</v>
+        <v>4200</v>
       </c>
       <c r="E9" s="3">
-        <v>6600</v>
+        <v>2800</v>
       </c>
       <c r="F9" s="3">
-        <v>3900</v>
+        <v>6900</v>
       </c>
       <c r="G9" s="3">
-        <v>2700</v>
+        <v>4100</v>
       </c>
       <c r="H9" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L9" s="3">
         <v>2200</v>
       </c>
-      <c r="I9" s="3">
-        <v>5400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="E10" s="3">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="F10" s="3">
         <v>2200</v>
       </c>
       <c r="G10" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H10" s="3">
         <v>-500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,49 +881,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
         <v>400</v>
-      </c>
-      <c r="E12" s="3">
-        <v>200</v>
       </c>
       <c r="F12" s="3">
         <v>200</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>100</v>
-      </c>
-      <c r="K12" s="3">
-        <v>200</v>
       </c>
       <c r="L12" s="3">
         <v>200</v>
       </c>
       <c r="M12" s="3">
+        <v>200</v>
+      </c>
+      <c r="N12" s="3">
         <v>600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,8 +967,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -991,8 +1011,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1032,8 +1055,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1072,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5400</v>
+        <v>7400</v>
       </c>
       <c r="E17" s="3">
-        <v>11000</v>
+        <v>5700</v>
       </c>
       <c r="F17" s="3">
-        <v>7400</v>
+        <v>11500</v>
       </c>
       <c r="G17" s="3">
-        <v>4000</v>
+        <v>7800</v>
       </c>
       <c r="H17" s="3">
-        <v>3900</v>
+        <v>4200</v>
       </c>
       <c r="I17" s="3">
-        <v>7500</v>
+        <v>4100</v>
       </c>
       <c r="J17" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K17" s="3">
         <v>2800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1145,8 +1178,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1154,17 +1188,17 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1186,49 +1220,55 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
-        <v>-2000</v>
-      </c>
       <c r="F21" s="3">
-        <v>-1200</v>
+        <v>-2100</v>
       </c>
       <c r="G21" s="3">
-        <v>-2400</v>
+        <v>-1300</v>
       </c>
       <c r="H21" s="3">
-        <v>-1500</v>
+        <v>-2500</v>
       </c>
       <c r="I21" s="3">
         <v>-1500</v>
       </c>
       <c r="J21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1245,7 +1285,7 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1268,49 +1308,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
-        <v>-2200</v>
-      </c>
       <c r="F23" s="3">
-        <v>-1400</v>
+        <v>-2300</v>
       </c>
       <c r="G23" s="3">
-        <v>-2500</v>
+        <v>-1500</v>
       </c>
       <c r="H23" s="3">
-        <v>-1500</v>
+        <v>-2600</v>
       </c>
       <c r="I23" s="3">
         <v>-1600</v>
       </c>
       <c r="J23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1318,11 +1364,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1350,8 +1396,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1391,90 +1440,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-1000</v>
+        <v>-2000</v>
       </c>
       <c r="E26" s="3">
-        <v>-2300</v>
+        <v>-1100</v>
       </c>
       <c r="F26" s="3">
-        <v>-1400</v>
+        <v>-2400</v>
       </c>
       <c r="G26" s="3">
-        <v>-2500</v>
+        <v>-1500</v>
       </c>
       <c r="H26" s="3">
-        <v>-1500</v>
+        <v>-2600</v>
       </c>
       <c r="I26" s="3">
         <v>-1600</v>
       </c>
       <c r="J26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
-        <v>-2200</v>
-      </c>
       <c r="F27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
-        <v>-2500</v>
-      </c>
       <c r="H27" s="3">
-        <v>-1500</v>
+        <v>-2600</v>
       </c>
       <c r="I27" s="3">
         <v>-1500</v>
       </c>
       <c r="J27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1514,8 +1572,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1555,8 +1616,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1596,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1637,8 +1704,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1646,17 +1716,17 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1678,49 +1748,55 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
-        <v>-2200</v>
-      </c>
       <c r="F33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
-        <v>-2500</v>
-      </c>
       <c r="H33" s="3">
-        <v>-1500</v>
+        <v>-2600</v>
       </c>
       <c r="I33" s="3">
         <v>-1500</v>
       </c>
       <c r="J33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1760,95 +1836,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
-        <v>-2200</v>
-      </c>
       <c r="F35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
-        <v>-2500</v>
-      </c>
       <c r="H35" s="3">
-        <v>-1500</v>
+        <v>-2600</v>
       </c>
       <c r="I35" s="3">
         <v>-1500</v>
       </c>
       <c r="J35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43008</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42825</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42643</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1864,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1881,49 +1967,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1500</v>
+        <v>4600</v>
       </c>
       <c r="E41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
-        <v>1700</v>
-      </c>
       <c r="G41" s="3">
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="H41" s="3">
-        <v>7600</v>
+        <v>6900</v>
       </c>
       <c r="I41" s="3">
-        <v>1200</v>
+        <v>8000</v>
       </c>
       <c r="J41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1963,49 +2053,55 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>13100</v>
+        <v>14700</v>
       </c>
       <c r="E43" s="3">
-        <v>13100</v>
+        <v>13700</v>
       </c>
       <c r="F43" s="3">
-        <v>7700</v>
+        <v>13700</v>
       </c>
       <c r="G43" s="3">
-        <v>18300</v>
+        <v>8000</v>
       </c>
       <c r="H43" s="3">
-        <v>6500</v>
+        <v>5400</v>
       </c>
       <c r="I43" s="3">
-        <v>7900</v>
+        <v>6800</v>
       </c>
       <c r="J43" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K43" s="3">
         <v>6800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2013,25 +2109,25 @@
         <v>300</v>
       </c>
       <c r="E44" s="3">
+        <v>300</v>
+      </c>
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
       <c r="G44" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I44" s="3">
+        <v>800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>500</v>
+      </c>
+      <c r="K44" s="3">
         <v>700</v>
-      </c>
-      <c r="I44" s="3">
-        <v>500</v>
-      </c>
-      <c r="J44" s="3">
-        <v>700</v>
-      </c>
-      <c r="K44" s="3">
-        <v>400</v>
       </c>
       <c r="L44" s="3">
         <v>400</v>
@@ -2040,122 +2136,131 @@
         <v>400</v>
       </c>
       <c r="N44" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="O44" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
-        <v>4900</v>
-      </c>
       <c r="G45" s="3">
-        <v>2200</v>
+        <v>5200</v>
       </c>
       <c r="H45" s="3">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="I45" s="3">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="J45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K45" s="3">
         <v>2300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F46" s="3">
         <v>14900</v>
       </c>
-      <c r="E46" s="3">
-        <v>14200</v>
-      </c>
-      <c r="F46" s="3">
-        <v>14400</v>
-      </c>
       <c r="G46" s="3">
-        <v>28900</v>
+        <v>15100</v>
       </c>
       <c r="H46" s="3">
-        <v>17500</v>
+        <v>15300</v>
       </c>
       <c r="I46" s="3">
-        <v>12600</v>
+        <v>18300</v>
       </c>
       <c r="J46" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K46" s="3">
         <v>10700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="E47" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="F47" s="3">
         <v>4800</v>
       </c>
       <c r="G47" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="H47" s="3">
         <v>600</v>
       </c>
       <c r="I47" s="3">
+        <v>600</v>
+      </c>
+      <c r="J47" s="3">
         <v>300</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
@@ -2163,36 +2268,39 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4100</v>
+        <v>4900</v>
       </c>
       <c r="E48" s="3">
-        <v>3800</v>
+        <v>4300</v>
       </c>
       <c r="F48" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="G48" s="3">
-        <v>6100</v>
+        <v>3900</v>
       </c>
       <c r="H48" s="3">
-        <v>1400</v>
+        <v>2300</v>
       </c>
       <c r="I48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J48" s="3">
         <v>1200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
@@ -2209,8 +2317,11 @@
       <c r="O48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2224,7 +2335,7 @@
         <v>200</v>
       </c>
       <c r="G49" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
@@ -2235,8 +2346,8 @@
       <c r="J49" s="3">
         <v>200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>40</v>
+      <c r="K49" s="3">
+        <v>200</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>40</v>
@@ -2250,8 +2361,11 @@
       <c r="O49" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2449,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2373,8 +2493,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2537,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23700</v>
+        <v>29600</v>
       </c>
       <c r="E54" s="3">
-        <v>22800</v>
+        <v>24800</v>
       </c>
       <c r="F54" s="3">
-        <v>23100</v>
+        <v>23900</v>
       </c>
       <c r="G54" s="3">
-        <v>40500</v>
+        <v>24100</v>
       </c>
       <c r="H54" s="3">
-        <v>19700</v>
+        <v>18500</v>
       </c>
       <c r="I54" s="3">
-        <v>14300</v>
+        <v>20600</v>
       </c>
       <c r="J54" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K54" s="3">
         <v>11300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,172 +2619,185 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2200</v>
-      </c>
       <c r="G57" s="3">
-        <v>3300</v>
+        <v>2400</v>
       </c>
       <c r="H57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="E58" s="3">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="F58" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G58" s="3">
-        <v>3400</v>
+        <v>1100</v>
       </c>
       <c r="H58" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J58" s="3">
         <v>1300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="E59" s="3">
-        <v>2100</v>
+        <v>3200</v>
       </c>
       <c r="F59" s="3">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="G59" s="3">
-        <v>3200</v>
+        <v>2700</v>
       </c>
       <c r="H59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I59" s="3">
         <v>1300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1600</v>
       </c>
       <c r="J59" s="3">
         <v>1700</v>
       </c>
       <c r="K59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7400</v>
+        <v>9900</v>
       </c>
       <c r="E60" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G60" s="3">
         <v>6100</v>
       </c>
-      <c r="F60" s="3">
-        <v>5800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>9900</v>
-      </c>
       <c r="H60" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="I60" s="3">
-        <v>5100</v>
+        <v>4100</v>
       </c>
       <c r="J60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K60" s="3">
         <v>5400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2668,16 +2811,16 @@
         <v>1200</v>
       </c>
       <c r="G61" s="3">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="H61" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I61" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2694,31 +2837,34 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2735,8 +2881,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2817,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3013,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10100</v>
+        <v>12800</v>
       </c>
       <c r="E66" s="3">
-        <v>8900</v>
+        <v>10600</v>
       </c>
       <c r="F66" s="3">
-        <v>8700</v>
+        <v>9300</v>
       </c>
       <c r="G66" s="3">
-        <v>15600</v>
+        <v>9100</v>
       </c>
       <c r="H66" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K66" s="3">
         <v>6800</v>
       </c>
-      <c r="I66" s="3">
-        <v>7800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>6800</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3251,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-24300</v>
+        <v>-27400</v>
       </c>
       <c r="E72" s="3">
-        <v>-23300</v>
+        <v>-25500</v>
       </c>
       <c r="F72" s="3">
-        <v>-21100</v>
+        <v>-24400</v>
       </c>
       <c r="G72" s="3">
-        <v>-43600</v>
+        <v>-22100</v>
       </c>
       <c r="H72" s="3">
-        <v>-17200</v>
+        <v>-20600</v>
       </c>
       <c r="I72" s="3">
-        <v>-15700</v>
+        <v>-18000</v>
       </c>
       <c r="J72" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-14200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3427,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>14500</v>
+      </c>
+      <c r="G76" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>11600</v>
+      </c>
+      <c r="I76" s="3">
         <v>13500</v>
       </c>
-      <c r="E76" s="3">
-        <v>13900</v>
-      </c>
-      <c r="F76" s="3">
-        <v>14300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>24900</v>
-      </c>
-      <c r="H76" s="3">
-        <v>12900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>6500</v>
-      </c>
       <c r="J76" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K76" s="3">
         <v>4400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3515,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43008</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42825</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42643</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
-        <v>-2200</v>
-      </c>
       <c r="F81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
-        <v>-2500</v>
-      </c>
       <c r="H81" s="3">
-        <v>-1500</v>
+        <v>-2600</v>
       </c>
       <c r="I81" s="3">
         <v>-1500</v>
       </c>
       <c r="J81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,13 +3628,14 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -3445,14 +3644,14 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -3471,8 +3670,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3890,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
-        <v>-3900</v>
-      </c>
       <c r="G89" s="3">
-        <v>-700</v>
+        <v>-4100</v>
       </c>
       <c r="H89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
-        <v>-1600</v>
-      </c>
       <c r="J89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>900</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3954,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3743,19 +3964,19 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -3775,8 +3996,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,35 +4084,38 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>500</v>
+        <v>-900</v>
       </c>
       <c r="E94" s="3">
-        <v>-700</v>
+        <v>600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1200</v>
+        <v>-800</v>
       </c>
       <c r="G94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H94" s="3">
         <v>-400</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-900</v>
       </c>
       <c r="I94" s="3">
         <v>-900</v>
       </c>
       <c r="J94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -3898,8 +4128,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4190,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4322,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H100" s="3">
-        <v>7600</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>2800</v>
+        <v>7900</v>
       </c>
       <c r="J100" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4132,14 +4381,14 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -4161,45 +4410,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="E102" s="3">
+        <v>900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
-        <v>-4800</v>
-      </c>
       <c r="G102" s="3">
-        <v>-1000</v>
+        <v>-5100</v>
       </c>
       <c r="H102" s="3">
-        <v>6400</v>
+        <v>-1100</v>
       </c>
       <c r="I102" s="3">
-        <v>300</v>
+        <v>6700</v>
       </c>
       <c r="J102" s="3">
         <v>300</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
@@ -744,10 +744,10 @@
         <v>4600</v>
       </c>
       <c r="F8" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="G8" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="H8" s="3">
         <v>2300</v>
@@ -800,7 +800,7 @@
         <v>2300</v>
       </c>
       <c r="J9" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="K9" s="3">
         <v>1500</v>
@@ -1085,13 +1085,13 @@
         <v>5700</v>
       </c>
       <c r="F17" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="G17" s="3">
         <v>7800</v>
       </c>
       <c r="H17" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="I17" s="3">
         <v>4100</v>
@@ -1235,7 +1235,7 @@
         <v>-800</v>
       </c>
       <c r="F21" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="G21" s="3">
         <v>-1300</v>
@@ -1323,7 +1323,7 @@
         <v>-1000</v>
       </c>
       <c r="F23" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="G23" s="3">
         <v>-1500</v>
@@ -1335,7 +1335,7 @@
         <v>-1600</v>
       </c>
       <c r="J23" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="K23" s="3">
         <v>-1000</v>
@@ -1467,7 +1467,7 @@
         <v>-1600</v>
       </c>
       <c r="J26" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="K26" s="3">
         <v>-1000</v>
@@ -2062,25 +2062,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="E43" s="3">
         <v>13700</v>
       </c>
       <c r="F43" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="G43" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="H43" s="3">
         <v>5400</v>
       </c>
       <c r="I43" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="J43" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="K43" s="3">
         <v>6800</v>
@@ -2165,7 +2165,7 @@
         <v>2000</v>
       </c>
       <c r="I45" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J45" s="3">
         <v>3100</v>
@@ -2194,7 +2194,7 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>19700</v>
+        <v>19800</v>
       </c>
       <c r="E46" s="3">
         <v>15600</v>
@@ -2206,13 +2206,13 @@
         <v>15100</v>
       </c>
       <c r="H46" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="I46" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="J46" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="K46" s="3">
         <v>10700</v>
@@ -2294,13 +2294,13 @@
         <v>3900</v>
       </c>
       <c r="H48" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I48" s="3">
         <v>1500</v>
       </c>
       <c r="J48" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
@@ -2546,22 +2546,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29600</v>
+        <v>29700</v>
       </c>
       <c r="E54" s="3">
-        <v>24800</v>
+        <v>24900</v>
       </c>
       <c r="F54" s="3">
-        <v>23900</v>
+        <v>24000</v>
       </c>
       <c r="G54" s="3">
-        <v>24100</v>
+        <v>24200</v>
       </c>
       <c r="H54" s="3">
-        <v>18500</v>
+        <v>18600</v>
       </c>
       <c r="I54" s="3">
-        <v>20600</v>
+        <v>20700</v>
       </c>
       <c r="J54" s="3">
         <v>15000</v>
@@ -2632,7 +2632,7 @@
         <v>2200</v>
       </c>
       <c r="F57" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G57" s="3">
         <v>2400</v>
@@ -2714,7 +2714,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E59" s="3">
         <v>3200</v>
@@ -2758,10 +2758,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="E60" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="F60" s="3">
         <v>6400</v>
@@ -2808,7 +2808,7 @@
         <v>1200</v>
       </c>
       <c r="F61" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G61" s="3">
         <v>1300</v>
@@ -3022,16 +3022,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="E66" s="3">
-        <v>10600</v>
+        <v>10700</v>
       </c>
       <c r="F66" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="G66" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="H66" s="3">
         <v>7000</v>
@@ -3260,22 +3260,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-27400</v>
+        <v>-27500</v>
       </c>
       <c r="E72" s="3">
-        <v>-25500</v>
+        <v>-25600</v>
       </c>
       <c r="F72" s="3">
-        <v>-24400</v>
+        <v>-24500</v>
       </c>
       <c r="G72" s="3">
-        <v>-22100</v>
+        <v>-22200</v>
       </c>
       <c r="H72" s="3">
-        <v>-20600</v>
+        <v>-20700</v>
       </c>
       <c r="I72" s="3">
-        <v>-18000</v>
+        <v>-18100</v>
       </c>
       <c r="J72" s="3">
         <v>-16500</v>
@@ -3436,16 +3436,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16700</v>
+        <v>16800</v>
       </c>
       <c r="E76" s="3">
-        <v>14100</v>
+        <v>14200</v>
       </c>
       <c r="F76" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="G76" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="H76" s="3">
         <v>11600</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="J100" s="3">
         <v>2900</v>
@@ -4419,7 +4419,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E102" s="3">
         <v>900</v>

--- a/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,220 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5400</v>
+        <v>3900</v>
       </c>
       <c r="E8" s="3">
-        <v>4600</v>
+        <v>5500</v>
       </c>
       <c r="F8" s="3">
-        <v>9200</v>
+        <v>4700</v>
       </c>
       <c r="G8" s="3">
-        <v>6500</v>
+        <v>9400</v>
       </c>
       <c r="H8" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I8" s="3">
         <v>2300</v>
       </c>
-      <c r="I8" s="3">
-        <v>2500</v>
-      </c>
       <c r="J8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K8" s="3">
         <v>6300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7100</v>
+      </c>
+      <c r="H9" s="3">
         <v>4200</v>
       </c>
-      <c r="E9" s="3">
-        <v>2800</v>
-      </c>
-      <c r="F9" s="3">
-        <v>6900</v>
-      </c>
-      <c r="G9" s="3">
-        <v>4100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2800</v>
-      </c>
       <c r="I9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J9" s="3">
         <v>2300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="3">
         <v>1200</v>
       </c>
-      <c r="E10" s="3">
-        <v>1800</v>
-      </c>
       <c r="F10" s="3">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="G10" s="3">
         <v>2300</v>
       </c>
       <c r="H10" s="3">
-        <v>-500</v>
+        <v>2400</v>
       </c>
       <c r="I10" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,8 +895,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,43 +905,46 @@
         <v>600</v>
       </c>
       <c r="E12" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F12" s="3">
+        <v>500</v>
+      </c>
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>100</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
       </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>100</v>
-      </c>
-      <c r="L12" s="3">
-        <v>200</v>
       </c>
       <c r="M12" s="3">
         <v>200</v>
       </c>
       <c r="N12" s="3">
+        <v>200</v>
+      </c>
+      <c r="O12" s="3">
         <v>600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -970,8 +987,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1014,8 +1034,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1081,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1099,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>7400</v>
+        <v>5300</v>
       </c>
       <c r="E17" s="3">
-        <v>5700</v>
+        <v>7600</v>
       </c>
       <c r="F17" s="3">
-        <v>11600</v>
+        <v>5800</v>
       </c>
       <c r="G17" s="3">
-        <v>7800</v>
+        <v>11800</v>
       </c>
       <c r="H17" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I17" s="3">
         <v>4300</v>
       </c>
-      <c r="I17" s="3">
-        <v>4100</v>
-      </c>
       <c r="J17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K17" s="3">
         <v>7900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I18" s="3">
         <v>-2000</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1600</v>
       </c>
       <c r="J18" s="3">
         <v>-1600</v>
       </c>
       <c r="K18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1179,29 +1212,30 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1223,57 +1257,63 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-1700</v>
+        <v>-1200</v>
       </c>
       <c r="E21" s="3">
-        <v>-800</v>
+        <v>-1800</v>
       </c>
       <c r="F21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3">
-        <v>-2500</v>
-      </c>
       <c r="I21" s="3">
-        <v>-1500</v>
+        <v>-2600</v>
       </c>
       <c r="J21" s="3">
         <v>-1600</v>
       </c>
       <c r="K21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1288,7 +1328,7 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1311,52 +1351,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
-        <v>-1500</v>
-      </c>
       <c r="H23" s="3">
-        <v>-2600</v>
+        <v>-1600</v>
       </c>
       <c r="I23" s="3">
-        <v>-1600</v>
+        <v>-2700</v>
       </c>
       <c r="J23" s="3">
         <v>-1700</v>
       </c>
       <c r="K23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1367,11 +1413,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1399,8 +1445,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1443,96 +1492,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
-        <v>-2400</v>
-      </c>
       <c r="G26" s="3">
-        <v>-1500</v>
+        <v>-2500</v>
       </c>
       <c r="H26" s="3">
-        <v>-2600</v>
+        <v>-1600</v>
       </c>
       <c r="I26" s="3">
-        <v>-1600</v>
+        <v>-2700</v>
       </c>
       <c r="J26" s="3">
         <v>-1700</v>
       </c>
       <c r="K26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-1900</v>
+        <v>-1400</v>
       </c>
       <c r="E27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
-        <v>-2300</v>
-      </c>
       <c r="G27" s="3">
-        <v>-1500</v>
+        <v>-2400</v>
       </c>
       <c r="H27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I27" s="3">
         <v>-2600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-1500</v>
       </c>
       <c r="J27" s="3">
         <v>-1600</v>
       </c>
       <c r="K27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1575,8 +1633,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1619,8 +1680,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1663,8 +1727,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1707,29 +1774,32 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1751,52 +1821,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-1900</v>
+        <v>-1400</v>
       </c>
       <c r="E33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
-        <v>-2300</v>
-      </c>
       <c r="G33" s="3">
-        <v>-1500</v>
+        <v>-2400</v>
       </c>
       <c r="H33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I33" s="3">
         <v>-2600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-1500</v>
       </c>
       <c r="J33" s="3">
         <v>-1600</v>
       </c>
       <c r="K33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1839,101 +1915,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-1900</v>
+        <v>-1400</v>
       </c>
       <c r="E35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
-        <v>-2300</v>
-      </c>
       <c r="G35" s="3">
-        <v>-1500</v>
+        <v>-2400</v>
       </c>
       <c r="H35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I35" s="3">
         <v>-2600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-1500</v>
       </c>
       <c r="J35" s="3">
         <v>-1600</v>
       </c>
       <c r="K35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1950,8 +2035,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1968,52 +2054,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>4600</v>
+        <v>11000</v>
       </c>
       <c r="E41" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
-        <v>1800</v>
-      </c>
       <c r="H41" s="3">
-        <v>6900</v>
+        <v>1900</v>
       </c>
       <c r="I41" s="3">
-        <v>8000</v>
+        <v>7100</v>
       </c>
       <c r="J41" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2056,52 +2146,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>14800</v>
+        <v>15700</v>
       </c>
       <c r="E43" s="3">
-        <v>13700</v>
+        <v>15100</v>
       </c>
       <c r="F43" s="3">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="G43" s="3">
-        <v>8100</v>
+        <v>14100</v>
       </c>
       <c r="H43" s="3">
-        <v>5400</v>
+        <v>8200</v>
       </c>
       <c r="I43" s="3">
-        <v>6900</v>
+        <v>5500</v>
       </c>
       <c r="J43" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K43" s="3">
         <v>8400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2112,25 +2208,25 @@
         <v>300</v>
       </c>
       <c r="F44" s="3">
+        <v>300</v>
+      </c>
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
       <c r="H44" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J44" s="3">
         <v>800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>700</v>
-      </c>
-      <c r="L44" s="3">
-        <v>400</v>
       </c>
       <c r="M44" s="3">
         <v>400</v>
@@ -2139,131 +2235,140 @@
         <v>400</v>
       </c>
       <c r="O44" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="P44" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
-        <v>5200</v>
-      </c>
       <c r="H45" s="3">
-        <v>2000</v>
+        <v>5300</v>
       </c>
       <c r="I45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J45" s="3">
         <v>2800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>19800</v>
+        <v>27100</v>
       </c>
       <c r="E46" s="3">
-        <v>15600</v>
+        <v>20200</v>
       </c>
       <c r="F46" s="3">
-        <v>14900</v>
+        <v>16000</v>
       </c>
       <c r="G46" s="3">
-        <v>15100</v>
+        <v>15300</v>
       </c>
       <c r="H46" s="3">
         <v>15400</v>
       </c>
       <c r="I46" s="3">
-        <v>18400</v>
+        <v>15700</v>
       </c>
       <c r="J46" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K46" s="3">
         <v>13300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="E47" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="F47" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="G47" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="H47" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I47" s="3">
+        <v>700</v>
+      </c>
+      <c r="J47" s="3">
         <v>600</v>
       </c>
-      <c r="I47" s="3">
-        <v>600</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>300</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
@@ -2271,13 +2376,16 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2285,25 +2393,25 @@
         <v>4900</v>
       </c>
       <c r="E48" s="3">
-        <v>4300</v>
+        <v>5000</v>
       </c>
       <c r="F48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H48" s="3">
         <v>4000</v>
       </c>
-      <c r="G48" s="3">
-        <v>3900</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>400</v>
       </c>
       <c r="L48" s="3">
         <v>400</v>
@@ -2320,8 +2428,11 @@
       <c r="P48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2349,8 +2460,8 @@
       <c r="K49" s="3">
         <v>200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>40</v>
+      <c r="L49" s="3">
+        <v>200</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>40</v>
@@ -2364,8 +2475,11 @@
       <c r="P49" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2522,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,8 +2569,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2496,8 +2616,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2663,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29700</v>
+        <v>37100</v>
       </c>
       <c r="E54" s="3">
-        <v>24900</v>
+        <v>30300</v>
       </c>
       <c r="F54" s="3">
-        <v>24000</v>
+        <v>25400</v>
       </c>
       <c r="G54" s="3">
-        <v>24200</v>
+        <v>24500</v>
       </c>
       <c r="H54" s="3">
-        <v>18600</v>
+        <v>24800</v>
       </c>
       <c r="I54" s="3">
-        <v>20700</v>
+        <v>19000</v>
       </c>
       <c r="J54" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K54" s="3">
         <v>15000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2731,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,184 +2750,197 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="E57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
-        <v>2300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>2100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E58" s="3">
         <v>3200</v>
       </c>
-      <c r="E58" s="3">
-        <v>2300</v>
-      </c>
       <c r="F58" s="3">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="G58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H58" s="3">
         <v>1100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1500</v>
       </c>
       <c r="I58" s="3">
         <v>1500</v>
       </c>
       <c r="J58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E59" s="3">
         <v>3300</v>
       </c>
-      <c r="E59" s="3">
-        <v>3200</v>
-      </c>
       <c r="F59" s="3">
-        <v>2200</v>
+        <v>3300</v>
       </c>
       <c r="G59" s="3">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="H59" s="3">
-        <v>1100</v>
+        <v>2800</v>
       </c>
       <c r="I59" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J59" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="K59" s="3">
         <v>1700</v>
       </c>
       <c r="L59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10000</v>
+        <v>16700</v>
       </c>
       <c r="E60" s="3">
-        <v>7800</v>
+        <v>10200</v>
       </c>
       <c r="F60" s="3">
-        <v>6400</v>
+        <v>7900</v>
       </c>
       <c r="G60" s="3">
-        <v>6100</v>
+        <v>6600</v>
       </c>
       <c r="H60" s="3">
-        <v>4000</v>
+        <v>6300</v>
       </c>
       <c r="I60" s="3">
         <v>4100</v>
       </c>
       <c r="J60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K60" s="3">
         <v>5300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2808,13 +2951,13 @@
         <v>1200</v>
       </c>
       <c r="F61" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G61" s="3">
         <v>1300</v>
       </c>
       <c r="H61" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I61" s="3">
         <v>1400</v>
@@ -2823,7 +2966,7 @@
         <v>1400</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -2840,16 +2983,19 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>40</v>
@@ -2866,8 +3012,8 @@
       <c r="J62" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2884,8 +3030,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3077,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2972,8 +3124,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3171,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12900</v>
+        <v>19400</v>
       </c>
       <c r="E66" s="3">
-        <v>10700</v>
+        <v>13200</v>
       </c>
       <c r="F66" s="3">
+        <v>10900</v>
+      </c>
+      <c r="G66" s="3">
+        <v>9600</v>
+      </c>
+      <c r="H66" s="3">
         <v>9400</v>
       </c>
-      <c r="G66" s="3">
-        <v>9200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>7000</v>
-      </c>
       <c r="I66" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="J66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K66" s="3">
         <v>8200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3239,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3284,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3331,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3378,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3425,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-27500</v>
+        <v>-29500</v>
       </c>
       <c r="E72" s="3">
-        <v>-25600</v>
+        <v>-28100</v>
       </c>
       <c r="F72" s="3">
-        <v>-24500</v>
+        <v>-26100</v>
       </c>
       <c r="G72" s="3">
-        <v>-22200</v>
+        <v>-25100</v>
       </c>
       <c r="H72" s="3">
-        <v>-20700</v>
+        <v>-22700</v>
       </c>
       <c r="I72" s="3">
-        <v>-18100</v>
+        <v>-21100</v>
       </c>
       <c r="J72" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-16500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3519,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3566,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3613,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16800</v>
+        <v>17700</v>
       </c>
       <c r="E76" s="3">
-        <v>14200</v>
+        <v>17200</v>
       </c>
       <c r="F76" s="3">
-        <v>14600</v>
+        <v>14500</v>
       </c>
       <c r="G76" s="3">
-        <v>15100</v>
+        <v>14900</v>
       </c>
       <c r="H76" s="3">
-        <v>11600</v>
+        <v>15400</v>
       </c>
       <c r="I76" s="3">
-        <v>13500</v>
+        <v>11900</v>
       </c>
       <c r="J76" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K76" s="3">
         <v>6800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3707,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-1900</v>
+        <v>-1400</v>
       </c>
       <c r="E81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
-        <v>-2300</v>
-      </c>
       <c r="G81" s="3">
-        <v>-1500</v>
+        <v>-2400</v>
       </c>
       <c r="H81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I81" s="3">
         <v>-2600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-1500</v>
       </c>
       <c r="J81" s="3">
         <v>-1600</v>
       </c>
       <c r="K81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +3827,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3638,7 +3837,7 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -3647,14 +3846,14 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -3673,8 +3872,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3919,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3966,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4013,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4060,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4107,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>900</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,31 +4175,32 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3999,8 +4220,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4267,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,38 +4314,41 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-900</v>
       </c>
-      <c r="J94" s="3">
-        <v>-900</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4131,8 +4361,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4382,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4427,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4474,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4521,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,57 +4568,63 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4800</v>
+        <v>8800</v>
       </c>
       <c r="E100" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K100" s="3">
         <v>2900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -4384,14 +4633,14 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -4413,48 +4662,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E102" s="3">
         <v>3100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="G102" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>6700</v>
-      </c>
       <c r="J102" s="3">
-        <v>300</v>
+        <v>6900</v>
       </c>
       <c r="K102" s="3">
         <v>300</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
@@ -751,10 +751,10 @@
         <v>4700</v>
       </c>
       <c r="G8" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="H8" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="I8" s="3">
         <v>2300</v>
@@ -789,22 +789,22 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E9" s="3">
         <v>4300</v>
       </c>
       <c r="F9" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="G9" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="H9" s="3">
         <v>4200</v>
       </c>
       <c r="I9" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J9" s="3">
         <v>2300</v>
@@ -836,13 +836,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="3">
         <v>1200</v>
       </c>
       <c r="F10" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G10" s="3">
         <v>2300</v>
@@ -908,7 +908,7 @@
         <v>600</v>
       </c>
       <c r="F12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G12" s="3">
         <v>200</v>
@@ -1109,16 +1109,16 @@
         <v>5300</v>
       </c>
       <c r="E17" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="F17" s="3">
         <v>5800</v>
       </c>
       <c r="G17" s="3">
-        <v>11800</v>
+        <v>11600</v>
       </c>
       <c r="H17" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="I17" s="3">
         <v>4300</v>
@@ -1156,7 +1156,7 @@
         <v>-1400</v>
       </c>
       <c r="E18" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="F18" s="3">
         <v>-1100</v>
@@ -1165,7 +1165,7 @@
         <v>-2400</v>
       </c>
       <c r="H18" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="I18" s="3">
         <v>-2000</v>
@@ -1269,7 +1269,7 @@
         <v>-1200</v>
       </c>
       <c r="E21" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="F21" s="3">
         <v>-900</v>
@@ -1281,10 +1281,10 @@
         <v>-1300</v>
       </c>
       <c r="I21" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="J21" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="K21" s="3">
         <v>-1600</v>
@@ -1372,13 +1372,13 @@
         <v>-2400</v>
       </c>
       <c r="H23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1600</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-1700</v>
       </c>
       <c r="K23" s="3">
         <v>-1700</v>
@@ -1501,7 +1501,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="E26" s="3">
         <v>-2000</v>
@@ -1510,16 +1510,16 @@
         <v>-1100</v>
       </c>
       <c r="G26" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="H26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-1700</v>
       </c>
       <c r="K26" s="3">
         <v>-1700</v>
@@ -1551,7 +1551,7 @@
         <v>-1400</v>
       </c>
       <c r="E27" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="F27" s="3">
         <v>-1000</v>
@@ -1833,7 +1833,7 @@
         <v>-1400</v>
       </c>
       <c r="E33" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="F33" s="3">
         <v>-1000</v>
@@ -1927,7 +1927,7 @@
         <v>-1400</v>
       </c>
       <c r="E35" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="F35" s="3">
         <v>-1000</v>
@@ -2061,7 +2061,7 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="E41" s="3">
         <v>4700</v>
@@ -2073,13 +2073,13 @@
         <v>700</v>
       </c>
       <c r="H41" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I41" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="J41" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="K41" s="3">
         <v>1300</v>
@@ -2155,25 +2155,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>15700</v>
+        <v>15500</v>
       </c>
       <c r="E43" s="3">
-        <v>15100</v>
+        <v>14900</v>
       </c>
       <c r="F43" s="3">
-        <v>14000</v>
+        <v>13800</v>
       </c>
       <c r="G43" s="3">
-        <v>14100</v>
+        <v>13900</v>
       </c>
       <c r="H43" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="I43" s="3">
         <v>5500</v>
       </c>
       <c r="J43" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="K43" s="3">
         <v>8400</v>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J44" s="3">
         <v>800</v>
@@ -2261,10 +2261,10 @@
         <v>300</v>
       </c>
       <c r="H45" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="I45" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J45" s="3">
         <v>2800</v>
@@ -2296,25 +2296,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>27100</v>
+        <v>26800</v>
       </c>
       <c r="E46" s="3">
-        <v>20200</v>
+        <v>19900</v>
       </c>
       <c r="F46" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="G46" s="3">
-        <v>15300</v>
+        <v>15100</v>
       </c>
       <c r="H46" s="3">
-        <v>15400</v>
+        <v>15200</v>
       </c>
       <c r="I46" s="3">
-        <v>15700</v>
+        <v>15500</v>
       </c>
       <c r="J46" s="3">
-        <v>18800</v>
+        <v>18500</v>
       </c>
       <c r="K46" s="3">
         <v>13300</v>
@@ -2343,13 +2343,13 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="E47" s="3">
         <v>4900</v>
       </c>
       <c r="F47" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="G47" s="3">
         <v>4900</v>
@@ -2358,7 +2358,7 @@
         <v>5100</v>
       </c>
       <c r="I47" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J47" s="3">
         <v>600</v>
@@ -2390,19 +2390,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="E48" s="3">
         <v>5000</v>
       </c>
       <c r="F48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="G48" s="3">
         <v>4100</v>
       </c>
       <c r="H48" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="I48" s="3">
         <v>2400</v>
@@ -2672,25 +2672,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37100</v>
+        <v>36600</v>
       </c>
       <c r="E54" s="3">
-        <v>30300</v>
+        <v>29900</v>
       </c>
       <c r="F54" s="3">
-        <v>25400</v>
+        <v>25100</v>
       </c>
       <c r="G54" s="3">
-        <v>24500</v>
+        <v>24200</v>
       </c>
       <c r="H54" s="3">
-        <v>24800</v>
+        <v>24400</v>
       </c>
       <c r="I54" s="3">
-        <v>19000</v>
+        <v>18800</v>
       </c>
       <c r="J54" s="3">
-        <v>21200</v>
+        <v>20900</v>
       </c>
       <c r="K54" s="3">
         <v>15000</v>
@@ -2760,7 +2760,7 @@
         <v>3000</v>
       </c>
       <c r="E57" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="F57" s="3">
         <v>2300</v>
@@ -2772,7 +2772,7 @@
         <v>2400</v>
       </c>
       <c r="I57" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J57" s="3">
         <v>1300</v>
@@ -2804,13 +2804,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="E58" s="3">
         <v>3200</v>
       </c>
       <c r="F58" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G58" s="3">
         <v>2100</v>
@@ -2857,13 +2857,13 @@
         <v>3300</v>
       </c>
       <c r="F59" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="G59" s="3">
         <v>2300</v>
       </c>
       <c r="H59" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I59" s="3">
         <v>1200</v>
@@ -2898,25 +2898,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16700</v>
+        <v>16400</v>
       </c>
       <c r="E60" s="3">
-        <v>10200</v>
+        <v>10000</v>
       </c>
       <c r="F60" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="G60" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="H60" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="I60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J60" s="3">
         <v>4100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>4200</v>
       </c>
       <c r="K60" s="3">
         <v>5300</v>
@@ -2948,7 +2948,7 @@
         <v>1100</v>
       </c>
       <c r="E61" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F61" s="3">
         <v>1200</v>
@@ -3180,25 +3180,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19400</v>
+        <v>19100</v>
       </c>
       <c r="E66" s="3">
-        <v>13200</v>
+        <v>13000</v>
       </c>
       <c r="F66" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="G66" s="3">
-        <v>9600</v>
+        <v>9400</v>
       </c>
       <c r="H66" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="I66" s="3">
         <v>7100</v>
       </c>
       <c r="J66" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="K66" s="3">
         <v>8200</v>
@@ -3434,25 +3434,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-29500</v>
+        <v>-29100</v>
       </c>
       <c r="E72" s="3">
-        <v>-28100</v>
+        <v>-27700</v>
       </c>
       <c r="F72" s="3">
-        <v>-26100</v>
+        <v>-25800</v>
       </c>
       <c r="G72" s="3">
-        <v>-25100</v>
+        <v>-24700</v>
       </c>
       <c r="H72" s="3">
-        <v>-22700</v>
+        <v>-22400</v>
       </c>
       <c r="I72" s="3">
-        <v>-21100</v>
+        <v>-20800</v>
       </c>
       <c r="J72" s="3">
-        <v>-18500</v>
+        <v>-18200</v>
       </c>
       <c r="K72" s="3">
         <v>-16500</v>
@@ -3622,25 +3622,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="E76" s="3">
-        <v>17200</v>
+        <v>16900</v>
       </c>
       <c r="F76" s="3">
-        <v>14500</v>
+        <v>14300</v>
       </c>
       <c r="G76" s="3">
-        <v>14900</v>
+        <v>14700</v>
       </c>
       <c r="H76" s="3">
-        <v>15400</v>
+        <v>15200</v>
       </c>
       <c r="I76" s="3">
-        <v>11900</v>
+        <v>11700</v>
       </c>
       <c r="J76" s="3">
-        <v>13800</v>
+        <v>13700</v>
       </c>
       <c r="K76" s="3">
         <v>6800</v>
@@ -3771,7 +3771,7 @@
         <v>-1400</v>
       </c>
       <c r="E81" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="F81" s="3">
         <v>-1000</v>
@@ -4119,7 +4119,7 @@
         <v>-2600</v>
       </c>
       <c r="E89" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -4577,10 +4577,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="E100" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="F100" s="3">
         <v>300</v>
@@ -4595,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="K100" s="3">
         <v>2900</v>
@@ -4671,7 +4671,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="E102" s="3">
         <v>3100</v>
@@ -4680,16 +4680,16 @@
         <v>900</v>
       </c>
       <c r="G102" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="H102" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="I102" s="3">
         <v>-1100</v>
       </c>
       <c r="J102" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="K102" s="3">
         <v>300</v>

--- a/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>RCON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,220 +665,233 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E8" s="3">
         <v>3900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5500</v>
       </c>
-      <c r="F8" s="3">
-        <v>4700</v>
-      </c>
       <c r="G8" s="3">
-        <v>9300</v>
+        <v>4800</v>
       </c>
       <c r="H8" s="3">
-        <v>6500</v>
+        <v>9400</v>
       </c>
       <c r="I8" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J8" s="3">
         <v>2300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="E9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F9" s="3">
         <v>4300</v>
       </c>
-      <c r="F9" s="3">
-        <v>2800</v>
-      </c>
       <c r="G9" s="3">
-        <v>7000</v>
+        <v>2900</v>
       </c>
       <c r="H9" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I9" s="3">
         <v>4200</v>
       </c>
-      <c r="I9" s="3">
-        <v>2800</v>
-      </c>
       <c r="J9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K9" s="3">
         <v>2300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F10" s="3">
         <v>1200</v>
       </c>
-      <c r="F10" s="3">
-        <v>1800</v>
-      </c>
       <c r="G10" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H10" s="3">
         <v>2300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -896,55 +909,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E12" s="3">
         <v>600</v>
       </c>
       <c r="F12" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G12" s="3">
+        <v>500</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>300</v>
-      </c>
-      <c r="I12" s="3">
-        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
-      </c>
-      <c r="M12" s="3">
-        <v>200</v>
       </c>
       <c r="N12" s="3">
         <v>200</v>
       </c>
       <c r="O12" s="3">
+        <v>200</v>
+      </c>
+      <c r="P12" s="3">
         <v>600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -990,31 +1007,34 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1037,8 +1057,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1084,8 +1107,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1100,102 +1126,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5300</v>
+        <v>11800</v>
       </c>
       <c r="E17" s="3">
-        <v>7500</v>
+        <v>5400</v>
       </c>
       <c r="F17" s="3">
-        <v>5800</v>
+        <v>7600</v>
       </c>
       <c r="G17" s="3">
-        <v>11600</v>
+        <v>5900</v>
       </c>
       <c r="H17" s="3">
+        <v>11800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="L17" s="3">
         <v>7900</v>
       </c>
-      <c r="I17" s="3">
-        <v>4300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>4200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>7900</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J18" s="3">
         <v>-2000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1600</v>
       </c>
       <c r="K18" s="3">
         <v>-1600</v>
       </c>
       <c r="L18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1213,32 +1246,33 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1260,55 +1294,61 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1200</v>
       </c>
-      <c r="E21" s="3">
-        <v>-1700</v>
-      </c>
       <c r="F21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3">
-        <v>-2500</v>
-      </c>
       <c r="J21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1316,7 +1356,7 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1331,7 +1371,7 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1354,60 +1394,66 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
-        <v>-2000</v>
-      </c>
       <c r="F23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1416,11 +1462,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1448,8 +1494,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,102 +1544,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-1500</v>
+        <v>-2500</v>
       </c>
       <c r="E26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
-        <v>-2400</v>
-      </c>
       <c r="H26" s="3">
-        <v>-1500</v>
+        <v>-2500</v>
       </c>
       <c r="I26" s="3">
-        <v>-2600</v>
+        <v>-1600</v>
       </c>
       <c r="J26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1400</v>
       </c>
-      <c r="E27" s="3">
-        <v>-1900</v>
-      </c>
       <c r="F27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
-        <v>-2600</v>
-      </c>
       <c r="J27" s="3">
-        <v>-1600</v>
+        <v>-2700</v>
       </c>
       <c r="K27" s="3">
         <v>-1600</v>
       </c>
       <c r="L27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1636,8 +1694,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1683,8 +1744,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1730,8 +1794,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1777,32 +1844,35 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-5900</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1824,55 +1894,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1400</v>
       </c>
-      <c r="E33" s="3">
-        <v>-1900</v>
-      </c>
       <c r="F33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
-        <v>-2600</v>
-      </c>
       <c r="J33" s="3">
-        <v>-1600</v>
+        <v>-2700</v>
       </c>
       <c r="K33" s="3">
         <v>-1600</v>
       </c>
       <c r="L33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1918,107 +1994,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1400</v>
       </c>
-      <c r="E35" s="3">
-        <v>-1900</v>
-      </c>
       <c r="F35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
-        <v>-2600</v>
-      </c>
       <c r="J35" s="3">
-        <v>-1600</v>
+        <v>-2700</v>
       </c>
       <c r="K35" s="3">
         <v>-1600</v>
       </c>
       <c r="L35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2036,8 +2121,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2055,55 +2141,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>10900</v>
+        <v>53900</v>
       </c>
       <c r="E41" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F41" s="3">
         <v>4700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
-        <v>1800</v>
-      </c>
       <c r="I41" s="3">
-        <v>7000</v>
+        <v>1900</v>
       </c>
       <c r="J41" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K41" s="3">
         <v>8100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2149,60 +2239,66 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>15500</v>
+        <v>21800</v>
       </c>
       <c r="E43" s="3">
-        <v>14900</v>
+        <v>15800</v>
       </c>
       <c r="F43" s="3">
-        <v>13800</v>
+        <v>15100</v>
       </c>
       <c r="G43" s="3">
-        <v>13900</v>
+        <v>14100</v>
       </c>
       <c r="H43" s="3">
-        <v>8100</v>
+        <v>14100</v>
       </c>
       <c r="I43" s="3">
-        <v>5500</v>
+        <v>8300</v>
       </c>
       <c r="J43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K43" s="3">
         <v>6900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E44" s="3">
         <v>300</v>
@@ -2211,25 +2307,25 @@
         <v>300</v>
       </c>
       <c r="G44" s="3">
+        <v>300</v>
+      </c>
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
       <c r="I44" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K44" s="3">
         <v>800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>700</v>
-      </c>
-      <c r="M44" s="3">
-        <v>400</v>
       </c>
       <c r="N44" s="3">
         <v>400</v>
@@ -2238,140 +2334,149 @@
         <v>400</v>
       </c>
       <c r="P44" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="Q44" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
-        <v>5200</v>
-      </c>
       <c r="I45" s="3">
-        <v>2000</v>
+        <v>5300</v>
       </c>
       <c r="J45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K45" s="3">
         <v>2800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>26800</v>
+        <v>76500</v>
       </c>
       <c r="E46" s="3">
-        <v>19900</v>
+        <v>27200</v>
       </c>
       <c r="F46" s="3">
-        <v>15800</v>
+        <v>20200</v>
       </c>
       <c r="G46" s="3">
-        <v>15100</v>
+        <v>16000</v>
       </c>
       <c r="H46" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="I46" s="3">
         <v>15500</v>
       </c>
       <c r="J46" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K46" s="3">
         <v>18500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>4800</v>
+        <v>4400</v>
       </c>
       <c r="E47" s="3">
         <v>4900</v>
       </c>
       <c r="F47" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="G47" s="3">
         <v>4900</v>
       </c>
       <c r="H47" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I47" s="3">
         <v>5100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
+        <v>700</v>
+      </c>
+      <c r="K47" s="3">
         <v>600</v>
       </c>
-      <c r="J47" s="3">
-        <v>600</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>300</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
@@ -2379,42 +2484,45 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4800</v>
+        <v>5500</v>
       </c>
       <c r="E48" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="F48" s="3">
-        <v>4300</v>
+        <v>5100</v>
       </c>
       <c r="G48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H48" s="3">
         <v>4100</v>
       </c>
-      <c r="H48" s="3">
-        <v>3900</v>
-      </c>
       <c r="I48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1300</v>
-      </c>
-      <c r="L48" s="3">
-        <v>400</v>
       </c>
       <c r="M48" s="3">
         <v>400</v>
@@ -2431,16 +2539,19 @@
       <c r="Q48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>200</v>
-      </c>
-      <c r="E49" s="3">
-        <v>200</v>
+        <v>2100</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
@@ -2463,8 +2574,8 @@
       <c r="L49" s="3">
         <v>200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>40</v>
+      <c r="M49" s="3">
+        <v>200</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>40</v>
@@ -2478,8 +2589,11 @@
       <c r="Q49" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2525,8 +2639,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2572,31 +2689,34 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2619,8 +2739,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2666,55 +2789,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36600</v>
+        <v>88700</v>
       </c>
       <c r="E54" s="3">
-        <v>29900</v>
+        <v>37200</v>
       </c>
       <c r="F54" s="3">
-        <v>25100</v>
+        <v>30400</v>
       </c>
       <c r="G54" s="3">
-        <v>24200</v>
+        <v>25500</v>
       </c>
       <c r="H54" s="3">
-        <v>24400</v>
+        <v>24600</v>
       </c>
       <c r="I54" s="3">
-        <v>18800</v>
+        <v>24800</v>
       </c>
       <c r="J54" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K54" s="3">
         <v>20900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2732,8 +2861,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2751,201 +2881,214 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
-        <v>3500</v>
-      </c>
       <c r="F57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
-        <v>2300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>2100</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10400</v>
+        <v>4600</v>
       </c>
       <c r="E58" s="3">
-        <v>3200</v>
+        <v>10600</v>
       </c>
       <c r="F58" s="3">
-        <v>2300</v>
+        <v>3300</v>
       </c>
       <c r="G58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H58" s="3">
         <v>2100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1500</v>
       </c>
       <c r="J58" s="3">
         <v>1500</v>
       </c>
       <c r="K58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L58" s="3">
         <v>1300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3300</v>
       </c>
-      <c r="F59" s="3">
-        <v>3200</v>
-      </c>
       <c r="G59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
-        <v>2700</v>
-      </c>
       <c r="I59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1700</v>
       </c>
       <c r="L59" s="3">
         <v>1700</v>
       </c>
       <c r="M59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N59" s="3">
         <v>1600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16400</v>
+        <v>12000</v>
       </c>
       <c r="E60" s="3">
-        <v>10000</v>
+        <v>16700</v>
       </c>
       <c r="F60" s="3">
-        <v>7800</v>
+        <v>10200</v>
       </c>
       <c r="G60" s="3">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="H60" s="3">
-        <v>6200</v>
+        <v>6600</v>
       </c>
       <c r="I60" s="3">
-        <v>4000</v>
+        <v>6300</v>
       </c>
       <c r="J60" s="3">
         <v>4100</v>
       </c>
       <c r="K60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L60" s="3">
         <v>5300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E61" s="3">
         <v>1100</v>
@@ -2954,13 +3097,13 @@
         <v>1200</v>
       </c>
       <c r="G61" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H61" s="3">
         <v>1300</v>
       </c>
       <c r="I61" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J61" s="3">
         <v>1400</v>
@@ -2969,7 +3112,7 @@
         <v>1400</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -2986,19 +3129,22 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>200</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>40</v>
@@ -3015,8 +3161,8 @@
       <c r="K62" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3033,8 +3179,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3080,8 +3229,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3127,8 +3279,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3174,55 +3329,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19100</v>
+        <v>42500</v>
       </c>
       <c r="E66" s="3">
-        <v>13000</v>
+        <v>19400</v>
       </c>
       <c r="F66" s="3">
-        <v>10800</v>
+        <v>13200</v>
       </c>
       <c r="G66" s="3">
+        <v>10900</v>
+      </c>
+      <c r="H66" s="3">
+        <v>9600</v>
+      </c>
+      <c r="I66" s="3">
         <v>9400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>9300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>7100</v>
       </c>
       <c r="J66" s="3">
         <v>7200</v>
       </c>
       <c r="K66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="L66" s="3">
         <v>8200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3240,8 +3401,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3287,8 +3449,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3334,8 +3499,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3381,8 +3549,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3428,55 +3599,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-29100</v>
+        <v>-31700</v>
       </c>
       <c r="E72" s="3">
-        <v>-27700</v>
+        <v>-29600</v>
       </c>
       <c r="F72" s="3">
-        <v>-25800</v>
+        <v>-28200</v>
       </c>
       <c r="G72" s="3">
-        <v>-24700</v>
+        <v>-26200</v>
       </c>
       <c r="H72" s="3">
-        <v>-22400</v>
+        <v>-25100</v>
       </c>
       <c r="I72" s="3">
-        <v>-20800</v>
+        <v>-22800</v>
       </c>
       <c r="J72" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-18200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3522,8 +3699,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3569,8 +3749,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3616,55 +3799,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17500</v>
+        <v>46200</v>
       </c>
       <c r="E76" s="3">
-        <v>16900</v>
+        <v>17800</v>
       </c>
       <c r="F76" s="3">
-        <v>14300</v>
+        <v>17200</v>
       </c>
       <c r="G76" s="3">
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="H76" s="3">
-        <v>15200</v>
+        <v>15000</v>
       </c>
       <c r="I76" s="3">
-        <v>11700</v>
+        <v>15400</v>
       </c>
       <c r="J76" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K76" s="3">
         <v>13700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3710,107 +3899,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1400</v>
       </c>
-      <c r="E81" s="3">
-        <v>-1900</v>
-      </c>
       <c r="F81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
-        <v>-2600</v>
-      </c>
       <c r="J81" s="3">
-        <v>-1600</v>
+        <v>-2700</v>
       </c>
       <c r="K81" s="3">
         <v>-1600</v>
       </c>
       <c r="L81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3828,19 +4026,20 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -3849,14 +4048,14 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -3875,8 +4074,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3922,8 +4124,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3969,8 +4174,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4016,8 +4224,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4063,8 +4274,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4110,55 +4324,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>900</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4176,34 +4396,35 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4223,8 +4444,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4270,8 +4494,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4317,41 +4544,44 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E94" s="3">
         <v>300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -4364,8 +4594,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4383,8 +4616,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4430,8 +4664,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4477,8 +4714,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4524,8 +4764,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4571,64 +4814,70 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8700</v>
+        <v>52900</v>
       </c>
       <c r="E100" s="3">
-        <v>4800</v>
+        <v>8800</v>
       </c>
       <c r="F100" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>8000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -4636,14 +4885,14 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -4665,51 +4914,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6200</v>
+        <v>42800</v>
       </c>
       <c r="E102" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F102" s="3">
         <v>3100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6800</v>
-      </c>
-      <c r="K102" s="3">
-        <v>300</v>
       </c>
       <c r="L102" s="3">
         <v>300</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
       </c>
       <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
@@ -749,22 +749,22 @@
         <v>3600</v>
       </c>
       <c r="E8" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="F8" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="G8" s="3">
         <v>4800</v>
       </c>
       <c r="H8" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="I8" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="J8" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K8" s="3">
         <v>2600</v>
@@ -802,16 +802,16 @@
         <v>2900</v>
       </c>
       <c r="F9" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="G9" s="3">
         <v>2900</v>
       </c>
       <c r="H9" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="I9" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="J9" s="3">
         <v>2900</v>
@@ -922,7 +922,7 @@
         <v>600</v>
       </c>
       <c r="F12" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G12" s="3">
         <v>500</v>
@@ -1133,19 +1133,19 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="E17" s="3">
         <v>5400</v>
       </c>
       <c r="F17" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="G17" s="3">
         <v>5900</v>
       </c>
       <c r="H17" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="I17" s="3">
         <v>8000</v>
@@ -1183,7 +1183,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-8200</v>
+        <v>-8300</v>
       </c>
       <c r="E18" s="3">
         <v>-1400</v>
@@ -1318,7 +1318,7 @@
         <v>-2200</v>
       </c>
       <c r="I21" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J21" s="3">
         <v>-2600</v>
@@ -1403,7 +1403,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="E23" s="3">
         <v>-1600</v>
@@ -1559,7 +1559,7 @@
         <v>-1600</v>
       </c>
       <c r="F26" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="G26" s="3">
         <v>-1100</v>
@@ -1612,7 +1612,7 @@
         <v>-2000</v>
       </c>
       <c r="G27" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="H27" s="3">
         <v>-2400</v>
@@ -1912,7 +1912,7 @@
         <v>-2000</v>
       </c>
       <c r="G33" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="H33" s="3">
         <v>-2400</v>
@@ -2012,7 +2012,7 @@
         <v>-2000</v>
       </c>
       <c r="G35" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="H35" s="3">
         <v>-2400</v>
@@ -2148,13 +2148,13 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>53900</v>
+        <v>54300</v>
       </c>
       <c r="E41" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="F41" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="G41" s="3">
         <v>1600</v>
@@ -2166,7 +2166,7 @@
         <v>1900</v>
       </c>
       <c r="J41" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="K41" s="3">
         <v>8100</v>
@@ -2248,19 +2248,19 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>21800</v>
+        <v>22000</v>
       </c>
       <c r="E43" s="3">
-        <v>15800</v>
+        <v>15900</v>
       </c>
       <c r="F43" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="G43" s="3">
-        <v>14100</v>
+        <v>14200</v>
       </c>
       <c r="H43" s="3">
-        <v>14100</v>
+        <v>14200</v>
       </c>
       <c r="I43" s="3">
         <v>8300</v>
@@ -2363,7 +2363,7 @@
         <v>300</v>
       </c>
       <c r="I45" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="J45" s="3">
         <v>2100</v>
@@ -2398,25 +2398,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>76500</v>
+        <v>77100</v>
       </c>
       <c r="E46" s="3">
-        <v>27200</v>
+        <v>27400</v>
       </c>
       <c r="F46" s="3">
-        <v>20200</v>
+        <v>20400</v>
       </c>
       <c r="G46" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="H46" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="I46" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="J46" s="3">
-        <v>15800</v>
+        <v>15900</v>
       </c>
       <c r="K46" s="3">
         <v>18500</v>
@@ -2454,16 +2454,16 @@
         <v>4900</v>
       </c>
       <c r="F47" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="G47" s="3">
         <v>4900</v>
       </c>
       <c r="H47" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="I47" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="J47" s="3">
         <v>700</v>
@@ -2510,7 +2510,7 @@
         <v>4400</v>
       </c>
       <c r="H48" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="I48" s="3">
         <v>4000</v>
@@ -2548,7 +2548,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>40</v>
@@ -2798,25 +2798,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>88700</v>
+        <v>89400</v>
       </c>
       <c r="E54" s="3">
-        <v>37200</v>
+        <v>37500</v>
       </c>
       <c r="F54" s="3">
-        <v>30400</v>
+        <v>30700</v>
       </c>
       <c r="G54" s="3">
-        <v>25500</v>
+        <v>25700</v>
       </c>
       <c r="H54" s="3">
-        <v>24600</v>
+        <v>24800</v>
       </c>
       <c r="I54" s="3">
-        <v>24800</v>
+        <v>25000</v>
       </c>
       <c r="J54" s="3">
-        <v>19100</v>
+        <v>19200</v>
       </c>
       <c r="K54" s="3">
         <v>20900</v>
@@ -2888,7 +2888,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E57" s="3">
         <v>3000</v>
@@ -2941,7 +2941,7 @@
         <v>4600</v>
       </c>
       <c r="E58" s="3">
-        <v>10600</v>
+        <v>10700</v>
       </c>
       <c r="F58" s="3">
         <v>3300</v>
@@ -2991,10 +2991,10 @@
         <v>4000</v>
       </c>
       <c r="E59" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F59" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G59" s="3">
         <v>3300</v>
@@ -3038,13 +3038,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="E60" s="3">
-        <v>16700</v>
+        <v>16900</v>
       </c>
       <c r="F60" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="G60" s="3">
         <v>8000</v>
@@ -3103,7 +3103,7 @@
         <v>1300</v>
       </c>
       <c r="I61" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J61" s="3">
         <v>1400</v>
@@ -3138,7 +3138,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>30700</v>
+        <v>30900</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -3338,22 +3338,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>42500</v>
+        <v>42800</v>
       </c>
       <c r="E66" s="3">
-        <v>19400</v>
+        <v>19600</v>
       </c>
       <c r="F66" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="G66" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="H66" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="I66" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="J66" s="3">
         <v>7200</v>
@@ -3608,25 +3608,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-31700</v>
+        <v>-32000</v>
       </c>
       <c r="E72" s="3">
-        <v>-29600</v>
+        <v>-29800</v>
       </c>
       <c r="F72" s="3">
-        <v>-28200</v>
+        <v>-28400</v>
       </c>
       <c r="G72" s="3">
-        <v>-26200</v>
+        <v>-26400</v>
       </c>
       <c r="H72" s="3">
-        <v>-25100</v>
+        <v>-25300</v>
       </c>
       <c r="I72" s="3">
-        <v>-22800</v>
+        <v>-22900</v>
       </c>
       <c r="J72" s="3">
-        <v>-21200</v>
+        <v>-21300</v>
       </c>
       <c r="K72" s="3">
         <v>-18200</v>
@@ -3808,25 +3808,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46200</v>
+        <v>46600</v>
       </c>
       <c r="E76" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="F76" s="3">
-        <v>17200</v>
+        <v>17400</v>
       </c>
       <c r="G76" s="3">
-        <v>14600</v>
+        <v>14700</v>
       </c>
       <c r="H76" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="I76" s="3">
-        <v>15400</v>
+        <v>15600</v>
       </c>
       <c r="J76" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="K76" s="3">
         <v>13700</v>
@@ -3972,7 +3972,7 @@
         <v>-2000</v>
       </c>
       <c r="G81" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="H81" s="3">
         <v>-2400</v>
@@ -4348,7 +4348,7 @@
         <v>-800</v>
       </c>
       <c r="I89" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="J89" s="3">
         <v>-800</v>
@@ -4823,10 +4823,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>52900</v>
+        <v>53300</v>
       </c>
       <c r="E100" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="F100" s="3">
         <v>4900</v>
@@ -4923,13 +4923,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>42800</v>
+        <v>43100</v>
       </c>
       <c r="E102" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="F102" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G102" s="3">
         <v>900</v>
@@ -4938,7 +4938,7 @@
         <v>-1200</v>
       </c>
       <c r="I102" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="J102" s="3">
         <v>-1100</v>

--- a/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>RCON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,246 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="E8" s="3">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="F8" s="3">
-        <v>5600</v>
+        <v>3700</v>
       </c>
       <c r="G8" s="3">
-        <v>4800</v>
+        <v>5200</v>
       </c>
       <c r="H8" s="3">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="I8" s="3">
-        <v>6700</v>
+        <v>8900</v>
       </c>
       <c r="J8" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K8" s="3">
         <v>2400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3500</v>
+        <v>5900</v>
       </c>
       <c r="E9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K9" s="3">
         <v>2900</v>
       </c>
-      <c r="F9" s="3">
-        <v>4400</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H9" s="3">
-        <v>7200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>4300</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2900</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="3">
         <v>1100</v>
       </c>
-      <c r="F10" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1900</v>
-      </c>
       <c r="H10" s="3">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="I10" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="J10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K10" s="3">
         <v>-600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -910,58 +923,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>600</v>
       </c>
-      <c r="F12" s="3">
-        <v>700</v>
-      </c>
       <c r="G12" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H12" s="3">
+        <v>400</v>
+      </c>
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
-        <v>300</v>
-      </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
       </c>
       <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>100</v>
-      </c>
-      <c r="N12" s="3">
-        <v>200</v>
       </c>
       <c r="O12" s="3">
         <v>200</v>
       </c>
       <c r="P12" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q12" s="3">
         <v>600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1010,16 +1027,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>40</v>
@@ -1036,8 +1056,8 @@
       <c r="J14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1060,8 +1080,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1110,8 +1133,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1127,108 +1153,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>11900</v>
+        <v>13500</v>
       </c>
       <c r="E17" s="3">
-        <v>5400</v>
+        <v>11100</v>
       </c>
       <c r="F17" s="3">
-        <v>7700</v>
+        <v>5100</v>
       </c>
       <c r="G17" s="3">
-        <v>5900</v>
+        <v>7200</v>
       </c>
       <c r="H17" s="3">
-        <v>11900</v>
+        <v>5500</v>
       </c>
       <c r="I17" s="3">
-        <v>8000</v>
+        <v>11100</v>
       </c>
       <c r="J17" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K17" s="3">
         <v>4400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-8300</v>
+        <v>-5500</v>
       </c>
       <c r="E18" s="3">
-        <v>-1400</v>
+        <v>-7700</v>
       </c>
       <c r="F18" s="3">
-        <v>-2100</v>
+        <v>-1300</v>
       </c>
       <c r="G18" s="3">
-        <v>-1100</v>
+        <v>-1900</v>
       </c>
       <c r="H18" s="3">
-        <v>-2400</v>
+        <v>-1000</v>
       </c>
       <c r="I18" s="3">
-        <v>-1400</v>
+        <v>-2300</v>
       </c>
       <c r="J18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1600</v>
       </c>
       <c r="L18" s="3">
         <v>-1600</v>
       </c>
       <c r="M18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1247,35 +1280,36 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>5900</v>
+        <v>22000</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1297,63 +1331,69 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I21" s="3">
         <v>-2100</v>
       </c>
-      <c r="E21" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-900</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1374,7 +1414,7 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1397,67 +1437,73 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-2600</v>
+        <v>16400</v>
       </c>
       <c r="E23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="M23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O23" s="3">
         <v>-2100</v>
       </c>
-      <c r="G23" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1465,11 +1511,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1497,8 +1543,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1547,108 +1596,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-2500</v>
+        <v>16400</v>
       </c>
       <c r="E26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="M26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O26" s="3">
         <v>-2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-2200</v>
+        <v>16400</v>
       </c>
       <c r="E27" s="3">
-        <v>-1400</v>
+        <v>-2000</v>
       </c>
       <c r="F27" s="3">
-        <v>-2000</v>
+        <v>-1300</v>
       </c>
       <c r="G27" s="3">
-        <v>-1100</v>
+        <v>-1800</v>
       </c>
       <c r="H27" s="3">
-        <v>-2400</v>
+        <v>-1000</v>
       </c>
       <c r="I27" s="3">
-        <v>-1600</v>
+        <v>-2300</v>
       </c>
       <c r="J27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-1600</v>
       </c>
       <c r="L27" s="3">
         <v>-1600</v>
       </c>
       <c r="M27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1697,8 +1755,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1747,8 +1808,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1797,8 +1861,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1847,35 +1914,38 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-5900</v>
+        <v>-22000</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-5500</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1897,58 +1967,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-2200</v>
+        <v>16400</v>
       </c>
       <c r="E33" s="3">
-        <v>-1400</v>
+        <v>-2000</v>
       </c>
       <c r="F33" s="3">
-        <v>-2000</v>
+        <v>-1300</v>
       </c>
       <c r="G33" s="3">
-        <v>-1100</v>
+        <v>-1800</v>
       </c>
       <c r="H33" s="3">
-        <v>-2400</v>
+        <v>-1000</v>
       </c>
       <c r="I33" s="3">
-        <v>-1600</v>
+        <v>-2300</v>
       </c>
       <c r="J33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-1600</v>
       </c>
       <c r="L33" s="3">
         <v>-1600</v>
       </c>
       <c r="M33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1997,113 +2073,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-2200</v>
+        <v>16400</v>
       </c>
       <c r="E35" s="3">
-        <v>-1400</v>
+        <v>-2000</v>
       </c>
       <c r="F35" s="3">
-        <v>-2000</v>
+        <v>-1300</v>
       </c>
       <c r="G35" s="3">
-        <v>-1100</v>
+        <v>-1800</v>
       </c>
       <c r="H35" s="3">
-        <v>-2400</v>
+        <v>-1000</v>
       </c>
       <c r="I35" s="3">
-        <v>-1600</v>
+        <v>-2300</v>
       </c>
       <c r="J35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-1600</v>
       </c>
       <c r="L35" s="3">
         <v>-1600</v>
       </c>
       <c r="M35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2122,8 +2207,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2142,58 +2228,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>54300</v>
+        <v>49100</v>
       </c>
       <c r="E41" s="3">
-        <v>11200</v>
+        <v>50700</v>
       </c>
       <c r="F41" s="3">
-        <v>4800</v>
+        <v>10400</v>
       </c>
       <c r="G41" s="3">
-        <v>1600</v>
+        <v>4500</v>
       </c>
       <c r="H41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
-        <v>1900</v>
-      </c>
       <c r="J41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K41" s="3">
         <v>7200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2242,66 +2332,72 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="E43" s="3">
-        <v>15900</v>
+        <v>20500</v>
       </c>
       <c r="F43" s="3">
-        <v>15200</v>
+        <v>14900</v>
       </c>
       <c r="G43" s="3">
         <v>14200</v>
       </c>
       <c r="H43" s="3">
-        <v>14200</v>
+        <v>13300</v>
       </c>
       <c r="I43" s="3">
-        <v>8300</v>
+        <v>13300</v>
       </c>
       <c r="J43" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K43" s="3">
         <v>5600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E44" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F44" s="3">
         <v>300</v>
@@ -2310,25 +2406,25 @@
         <v>300</v>
       </c>
       <c r="H44" s="3">
+        <v>300</v>
+      </c>
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
       <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
         <v>1100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>700</v>
-      </c>
-      <c r="N44" s="3">
-        <v>400</v>
       </c>
       <c r="O44" s="3">
         <v>400</v>
@@ -2337,149 +2433,158 @@
         <v>400</v>
       </c>
       <c r="Q44" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="R44" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>5400</v>
-      </c>
       <c r="J45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K45" s="3">
         <v>2100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>77100</v>
+        <v>67800</v>
       </c>
       <c r="E46" s="3">
-        <v>27400</v>
+        <v>72000</v>
       </c>
       <c r="F46" s="3">
-        <v>20400</v>
+        <v>25600</v>
       </c>
       <c r="G46" s="3">
-        <v>16100</v>
+        <v>19100</v>
       </c>
       <c r="H46" s="3">
-        <v>15400</v>
+        <v>15100</v>
       </c>
       <c r="I46" s="3">
-        <v>15600</v>
+        <v>14400</v>
       </c>
       <c r="J46" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K46" s="3">
         <v>15900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>4900</v>
+        <v>4100</v>
       </c>
       <c r="F47" s="3">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="G47" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="H47" s="3">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="I47" s="3">
-        <v>5200</v>
+        <v>4600</v>
       </c>
       <c r="J47" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K47" s="3">
         <v>700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>300</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
@@ -2487,45 +2592,48 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5500</v>
+        <v>4700</v>
       </c>
       <c r="E48" s="3">
-        <v>4900</v>
+        <v>5200</v>
       </c>
       <c r="F48" s="3">
-        <v>5100</v>
+        <v>4600</v>
       </c>
       <c r="G48" s="3">
-        <v>4400</v>
+        <v>4800</v>
       </c>
       <c r="H48" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="I48" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="J48" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1300</v>
-      </c>
-      <c r="M48" s="3">
-        <v>400</v>
       </c>
       <c r="N48" s="3">
         <v>400</v>
@@ -2542,19 +2650,22 @@
       <c r="R48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2200</v>
-      </c>
-      <c r="E49" s="3" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="F49" s="3">
-        <v>200</v>
       </c>
       <c r="G49" s="3">
         <v>200</v>
@@ -2577,8 +2688,8 @@
       <c r="M49" s="3">
         <v>200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>40</v>
+      <c r="N49" s="3">
+        <v>200</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>40</v>
@@ -2592,8 +2703,11 @@
       <c r="R49" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2642,8 +2756,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2692,8 +2809,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2703,8 +2823,8 @@
       <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>40</v>
+      <c r="F52" s="3">
+        <v>200</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>40</v>
@@ -2718,8 +2838,8 @@
       <c r="J52" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2742,8 +2862,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2792,58 +2915,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>89400</v>
+        <v>74800</v>
       </c>
       <c r="E54" s="3">
-        <v>37500</v>
+        <v>83500</v>
       </c>
       <c r="F54" s="3">
-        <v>30700</v>
+        <v>35000</v>
       </c>
       <c r="G54" s="3">
-        <v>25700</v>
+        <v>28600</v>
       </c>
       <c r="H54" s="3">
-        <v>24800</v>
+        <v>24000</v>
       </c>
       <c r="I54" s="3">
-        <v>25000</v>
+        <v>23100</v>
       </c>
       <c r="J54" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K54" s="3">
         <v>19200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2862,8 +2991,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2882,231 +3012,244 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="E57" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="F57" s="3">
-        <v>3600</v>
+        <v>2800</v>
       </c>
       <c r="G57" s="3">
-        <v>2300</v>
+        <v>3400</v>
       </c>
       <c r="H57" s="3">
         <v>2200</v>
       </c>
       <c r="I57" s="3">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="J57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4600</v>
+        <v>3000</v>
       </c>
       <c r="E58" s="3">
-        <v>10700</v>
+        <v>4300</v>
       </c>
       <c r="F58" s="3">
-        <v>3300</v>
+        <v>10000</v>
       </c>
       <c r="G58" s="3">
-        <v>2400</v>
+        <v>3100</v>
       </c>
       <c r="H58" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I58" s="3">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="J58" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K58" s="3">
         <v>1500</v>
       </c>
       <c r="L58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M58" s="3">
         <v>1300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="E59" s="3">
-        <v>3200</v>
+        <v>3700</v>
       </c>
       <c r="F59" s="3">
-        <v>3400</v>
+        <v>2900</v>
       </c>
       <c r="G59" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="H59" s="3">
-        <v>2300</v>
+        <v>3100</v>
       </c>
       <c r="I59" s="3">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="J59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1700</v>
       </c>
       <c r="M59" s="3">
         <v>1700</v>
       </c>
       <c r="N59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O59" s="3">
         <v>1600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12100</v>
+        <v>8300</v>
       </c>
       <c r="E60" s="3">
-        <v>16900</v>
+        <v>11300</v>
       </c>
       <c r="F60" s="3">
-        <v>10300</v>
+        <v>15700</v>
       </c>
       <c r="G60" s="3">
-        <v>8000</v>
+        <v>9600</v>
       </c>
       <c r="H60" s="3">
-        <v>6600</v>
+        <v>7500</v>
       </c>
       <c r="I60" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="J60" s="3">
-        <v>4100</v>
+        <v>5900</v>
       </c>
       <c r="K60" s="3">
         <v>4100</v>
       </c>
       <c r="L60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="M60" s="3">
         <v>5300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G61" s="3">
         <v>1100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I61" s="3">
         <v>1200</v>
       </c>
-      <c r="G61" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1300</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1400</v>
       </c>
       <c r="K61" s="3">
         <v>1400</v>
@@ -3115,7 +3258,7 @@
         <v>1400</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3132,22 +3275,25 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>30900</v>
+        <v>6800</v>
       </c>
       <c r="E62" s="3">
+        <v>28900</v>
+      </c>
+      <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>200</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>40</v>
@@ -3164,8 +3310,8 @@
       <c r="L62" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3182,8 +3328,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3232,8 +3381,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3282,8 +3434,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3332,58 +3487,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>42800</v>
+        <v>14900</v>
       </c>
       <c r="E66" s="3">
-        <v>19600</v>
+        <v>40000</v>
       </c>
       <c r="F66" s="3">
-        <v>13300</v>
+        <v>18300</v>
       </c>
       <c r="G66" s="3">
-        <v>11000</v>
+        <v>12400</v>
       </c>
       <c r="H66" s="3">
-        <v>9700</v>
+        <v>10300</v>
       </c>
       <c r="I66" s="3">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="J66" s="3">
-        <v>7200</v>
+        <v>8900</v>
       </c>
       <c r="K66" s="3">
         <v>7200</v>
       </c>
       <c r="L66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="M66" s="3">
         <v>8200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3402,8 +3563,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3452,8 +3614,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3502,8 +3667,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3552,8 +3720,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3602,58 +3773,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-32000</v>
+        <v>-13500</v>
       </c>
       <c r="E72" s="3">
-        <v>-29800</v>
+        <v>-29900</v>
       </c>
       <c r="F72" s="3">
-        <v>-28400</v>
+        <v>-27800</v>
       </c>
       <c r="G72" s="3">
-        <v>-26400</v>
+        <v>-26500</v>
       </c>
       <c r="H72" s="3">
-        <v>-25300</v>
+        <v>-24700</v>
       </c>
       <c r="I72" s="3">
-        <v>-22900</v>
+        <v>-23700</v>
       </c>
       <c r="J72" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-21300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3702,8 +3879,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3752,8 +3932,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3802,58 +3985,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46600</v>
+        <v>59800</v>
       </c>
       <c r="E76" s="3">
-        <v>17900</v>
+        <v>43500</v>
       </c>
       <c r="F76" s="3">
-        <v>17400</v>
+        <v>16700</v>
       </c>
       <c r="G76" s="3">
-        <v>14700</v>
+        <v>16200</v>
       </c>
       <c r="H76" s="3">
-        <v>15100</v>
+        <v>13700</v>
       </c>
       <c r="I76" s="3">
-        <v>15600</v>
+        <v>14100</v>
       </c>
       <c r="J76" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K76" s="3">
         <v>12000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3902,113 +4091,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-2200</v>
+        <v>16400</v>
       </c>
       <c r="E81" s="3">
-        <v>-1400</v>
+        <v>-2000</v>
       </c>
       <c r="F81" s="3">
-        <v>-2000</v>
+        <v>-1300</v>
       </c>
       <c r="G81" s="3">
-        <v>-1100</v>
+        <v>-1800</v>
       </c>
       <c r="H81" s="3">
-        <v>-2400</v>
+        <v>-1000</v>
       </c>
       <c r="I81" s="3">
-        <v>-1600</v>
+        <v>-2300</v>
       </c>
       <c r="J81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-1600</v>
       </c>
       <c r="L81" s="3">
         <v>-1600</v>
       </c>
       <c r="M81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4027,22 +4225,23 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
-      </c>
-      <c r="E83" s="3">
-        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -4051,14 +4250,14 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -4077,8 +4276,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4127,8 +4329,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4177,8 +4382,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4227,8 +4435,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4277,8 +4488,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4327,58 +4541,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2700</v>
+        <v>-3400</v>
       </c>
       <c r="E89" s="3">
         <v>-2600</v>
       </c>
       <c r="F89" s="3">
-        <v>-900</v>
+        <v>-2500</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
-        <v>-4300</v>
-      </c>
       <c r="J89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>900</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4397,8 +4617,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4406,28 +4627,28 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4447,8 +4668,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4497,8 +4721,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4547,44 +4774,47 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7600</v>
+        <v>3900</v>
       </c>
       <c r="E94" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F94" s="3">
         <v>300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H94" s="3">
+        <v>500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
-        <v>600</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-900</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -4597,8 +4827,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4617,8 +4850,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4667,8 +4901,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4717,8 +4954,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4767,8 +5007,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4817,70 +5060,76 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>53300</v>
+        <v>-1400</v>
       </c>
       <c r="E100" s="3">
-        <v>8900</v>
+        <v>49800</v>
       </c>
       <c r="F100" s="3">
-        <v>4900</v>
+        <v>8300</v>
       </c>
       <c r="G100" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>200</v>
-      </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>8000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -4888,14 +5137,14 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -4917,54 +5166,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>43100</v>
+        <v>-1600</v>
       </c>
       <c r="E102" s="3">
-        <v>6400</v>
+        <v>40300</v>
       </c>
       <c r="F102" s="3">
-        <v>3200</v>
+        <v>6000</v>
       </c>
       <c r="G102" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H102" s="3">
         <v>900</v>
       </c>
-      <c r="H102" s="3">
-        <v>-1200</v>
-      </c>
       <c r="I102" s="3">
-        <v>-5300</v>
+        <v>-1100</v>
       </c>
       <c r="J102" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6800</v>
-      </c>
-      <c r="L102" s="3">
-        <v>300</v>
       </c>
       <c r="M102" s="3">
         <v>300</v>
       </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
       </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
@@ -750,10 +750,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="E8" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="F8" s="3">
         <v>3700</v>
@@ -762,10 +762,10 @@
         <v>5200</v>
       </c>
       <c r="H8" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="I8" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="J8" s="3">
         <v>6200</v>
@@ -803,7 +803,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="E9" s="3">
         <v>3300</v>
@@ -812,16 +812,16 @@
         <v>2700</v>
       </c>
       <c r="G9" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="H9" s="3">
         <v>2700</v>
       </c>
       <c r="I9" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="J9" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="K9" s="3">
         <v>2900</v>
@@ -868,10 +868,10 @@
         <v>1100</v>
       </c>
       <c r="H10" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I10" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J10" s="3">
         <v>2200</v>
@@ -936,7 +936,7 @@
         <v>300</v>
       </c>
       <c r="F12" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G12" s="3">
         <v>600</v>
@@ -1160,25 +1160,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="E17" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="F17" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="G17" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="H17" s="3">
         <v>5500</v>
       </c>
       <c r="I17" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="J17" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="K17" s="3">
         <v>4400</v>
@@ -1287,7 +1287,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>22000</v>
+        <v>21800</v>
       </c>
       <c r="E20" s="3">
         <v>5500</v>
@@ -1299,7 +1299,7 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
@@ -1340,16 +1340,16 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>16800</v>
+        <v>16600</v>
       </c>
       <c r="E21" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="F21" s="3">
         <v>-1100</v>
       </c>
       <c r="G21" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="H21" s="3">
         <v>-800</v>
@@ -1446,7 +1446,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="E23" s="3">
         <v>-2400</v>
@@ -1605,7 +1605,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="E26" s="3">
         <v>-2300</v>
@@ -1658,7 +1658,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="E27" s="3">
         <v>-2000</v>
@@ -1673,7 +1673,7 @@
         <v>-1000</v>
       </c>
       <c r="I27" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="J27" s="3">
         <v>-1500</v>
@@ -1923,7 +1923,7 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-22000</v>
+        <v>-21800</v>
       </c>
       <c r="E32" s="3">
         <v>-5500</v>
@@ -1935,7 +1935,7 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
@@ -1976,7 +1976,7 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="E33" s="3">
         <v>-2000</v>
@@ -1991,7 +1991,7 @@
         <v>-1000</v>
       </c>
       <c r="I33" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="J33" s="3">
         <v>-1500</v>
@@ -2082,7 +2082,7 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="E35" s="3">
         <v>-2000</v>
@@ -2097,7 +2097,7 @@
         <v>-1000</v>
       </c>
       <c r="I35" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="J35" s="3">
         <v>-1500</v>
@@ -2235,16 +2235,16 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>49100</v>
+        <v>48600</v>
       </c>
       <c r="E41" s="3">
-        <v>50700</v>
+        <v>50200</v>
       </c>
       <c r="F41" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="G41" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="H41" s="3">
         <v>1500</v>
@@ -2253,7 +2253,7 @@
         <v>700</v>
       </c>
       <c r="J41" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K41" s="3">
         <v>7200</v>
@@ -2341,25 +2341,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>18000</v>
+        <v>17800</v>
       </c>
       <c r="E43" s="3">
-        <v>20500</v>
+        <v>20300</v>
       </c>
       <c r="F43" s="3">
-        <v>14900</v>
+        <v>14700</v>
       </c>
       <c r="G43" s="3">
-        <v>14200</v>
+        <v>14100</v>
       </c>
       <c r="H43" s="3">
-        <v>13300</v>
+        <v>13100</v>
       </c>
       <c r="I43" s="3">
-        <v>13300</v>
+        <v>13200</v>
       </c>
       <c r="J43" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="K43" s="3">
         <v>5600</v>
@@ -2500,25 +2500,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>67800</v>
+        <v>67200</v>
       </c>
       <c r="E46" s="3">
-        <v>72000</v>
+        <v>71300</v>
       </c>
       <c r="F46" s="3">
-        <v>25600</v>
+        <v>25400</v>
       </c>
       <c r="G46" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="H46" s="3">
-        <v>15100</v>
+        <v>14900</v>
       </c>
       <c r="I46" s="3">
-        <v>14400</v>
+        <v>14300</v>
       </c>
       <c r="J46" s="3">
-        <v>14600</v>
+        <v>14500</v>
       </c>
       <c r="K46" s="3">
         <v>15900</v>
@@ -2609,22 +2609,22 @@
         <v>4700</v>
       </c>
       <c r="E48" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="F48" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="G48" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="H48" s="3">
         <v>4100</v>
       </c>
       <c r="I48" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="J48" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="K48" s="3">
         <v>2400</v>
@@ -2659,7 +2659,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E49" s="3">
         <v>2000</v>
@@ -2924,25 +2924,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>74800</v>
+        <v>74100</v>
       </c>
       <c r="E54" s="3">
-        <v>83500</v>
+        <v>82700</v>
       </c>
       <c r="F54" s="3">
-        <v>35000</v>
+        <v>34700</v>
       </c>
       <c r="G54" s="3">
-        <v>28600</v>
+        <v>28400</v>
       </c>
       <c r="H54" s="3">
-        <v>24000</v>
+        <v>23800</v>
       </c>
       <c r="I54" s="3">
-        <v>23100</v>
+        <v>22900</v>
       </c>
       <c r="J54" s="3">
-        <v>23400</v>
+        <v>23200</v>
       </c>
       <c r="K54" s="3">
         <v>19200</v>
@@ -3019,7 +3019,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E57" s="3">
         <v>3200</v>
@@ -3031,7 +3031,7 @@
         <v>3400</v>
       </c>
       <c r="H57" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I57" s="3">
         <v>2100</v>
@@ -3078,10 +3078,10 @@
         <v>4300</v>
       </c>
       <c r="F58" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="G58" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="H58" s="3">
         <v>2200</v>
@@ -3140,7 +3140,7 @@
         <v>3100</v>
       </c>
       <c r="I59" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J59" s="3">
         <v>2600</v>
@@ -3181,19 +3181,19 @@
         <v>8300</v>
       </c>
       <c r="E60" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="F60" s="3">
-        <v>15700</v>
+        <v>15600</v>
       </c>
       <c r="G60" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="H60" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="I60" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="J60" s="3">
         <v>5900</v>
@@ -3234,7 +3234,7 @@
         <v>900</v>
       </c>
       <c r="E61" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F61" s="3">
         <v>1000</v>
@@ -3287,7 +3287,7 @@
         <v>6800</v>
       </c>
       <c r="E62" s="3">
-        <v>28900</v>
+        <v>28600</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -3496,25 +3496,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14900</v>
+        <v>14800</v>
       </c>
       <c r="E66" s="3">
-        <v>40000</v>
+        <v>39600</v>
       </c>
       <c r="F66" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
       <c r="G66" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="H66" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="I66" s="3">
         <v>9000</v>
       </c>
       <c r="J66" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="K66" s="3">
         <v>7200</v>
@@ -3782,25 +3782,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-13500</v>
+        <v>-13300</v>
       </c>
       <c r="E72" s="3">
-        <v>-29900</v>
+        <v>-29600</v>
       </c>
       <c r="F72" s="3">
-        <v>-27800</v>
+        <v>-27600</v>
       </c>
       <c r="G72" s="3">
-        <v>-26500</v>
+        <v>-26300</v>
       </c>
       <c r="H72" s="3">
-        <v>-24700</v>
+        <v>-24400</v>
       </c>
       <c r="I72" s="3">
-        <v>-23700</v>
+        <v>-23500</v>
       </c>
       <c r="J72" s="3">
-        <v>-21400</v>
+        <v>-21200</v>
       </c>
       <c r="K72" s="3">
         <v>-21300</v>
@@ -3994,25 +3994,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>59800</v>
+        <v>59300</v>
       </c>
       <c r="E76" s="3">
-        <v>43500</v>
+        <v>43100</v>
       </c>
       <c r="F76" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="G76" s="3">
-        <v>16200</v>
+        <v>16100</v>
       </c>
       <c r="H76" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="I76" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="J76" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="K76" s="3">
         <v>12000</v>
@@ -4158,7 +4158,7 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="E81" s="3">
         <v>-2000</v>
@@ -4173,7 +4173,7 @@
         <v>-1000</v>
       </c>
       <c r="I81" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="J81" s="3">
         <v>-1500</v>
@@ -4553,10 +4553,10 @@
         <v>-3400</v>
       </c>
       <c r="E89" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="F89" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="G89" s="3">
         <v>-800</v>
@@ -4568,7 +4568,7 @@
         <v>-800</v>
       </c>
       <c r="J89" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="K89" s="3">
         <v>-800</v>
@@ -4801,7 +4801,7 @@
         <v>-700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="K94" s="3">
         <v>-400</v>
@@ -5069,13 +5069,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="E100" s="3">
-        <v>49800</v>
+        <v>49300</v>
       </c>
       <c r="F100" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="G100" s="3">
         <v>4600</v>
@@ -5178,16 +5178,16 @@
         <v>-1600</v>
       </c>
       <c r="E102" s="3">
-        <v>40300</v>
+        <v>39900</v>
       </c>
       <c r="F102" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="G102" s="3">
         <v>2900</v>
       </c>
       <c r="H102" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I102" s="3">
         <v>-1100</v>

--- a/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
@@ -750,25 +750,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="E8" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="F8" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="G8" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="H8" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="I8" s="3">
-        <v>8800</v>
+        <v>8400</v>
       </c>
       <c r="J8" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="K8" s="3">
         <v>2400</v>
@@ -803,25 +803,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="E9" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="F9" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G9" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="H9" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I9" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="J9" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="K9" s="3">
         <v>2900</v>
@@ -856,13 +856,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G10" s="3">
         <v>1100</v>
@@ -871,10 +871,10 @@
         <v>1700</v>
       </c>
       <c r="I10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J10" s="3">
         <v>2100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>2200</v>
       </c>
       <c r="K10" s="3">
         <v>-600</v>
@@ -1160,25 +1160,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>13400</v>
+        <v>12800</v>
       </c>
       <c r="E17" s="3">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="F17" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="G17" s="3">
+        <v>6800</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>10500</v>
+      </c>
+      <c r="J17" s="3">
         <v>7100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>5500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>11000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>7400</v>
       </c>
       <c r="K17" s="3">
         <v>4400</v>
@@ -1213,25 +1213,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-5500</v>
+        <v>-5200</v>
       </c>
       <c r="E18" s="3">
-        <v>-7700</v>
+        <v>-7300</v>
       </c>
       <c r="F18" s="3">
         <v>-1300</v>
       </c>
       <c r="G18" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="H18" s="3">
         <v>-1000</v>
       </c>
       <c r="I18" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="J18" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="K18" s="3">
         <v>-2000</v>
@@ -1287,10 +1287,10 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>21800</v>
+        <v>20800</v>
       </c>
       <c r="E20" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1340,10 +1340,10 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>16600</v>
+        <v>15900</v>
       </c>
       <c r="E21" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="F21" s="3">
         <v>-1100</v>
@@ -1355,10 +1355,10 @@
         <v>-800</v>
       </c>
       <c r="I21" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="J21" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="K21" s="3">
         <v>-2600</v>
@@ -1446,25 +1446,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>16300</v>
+        <v>15500</v>
       </c>
       <c r="E23" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="F23" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="G23" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="H23" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="I23" s="3">
-        <v>-2300</v>
+        <v>-2100</v>
       </c>
       <c r="J23" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="K23" s="3">
         <v>-2700</v>
@@ -1605,25 +1605,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>16300</v>
+        <v>15500</v>
       </c>
       <c r="E26" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="F26" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="G26" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="H26" s="3">
         <v>-1000</v>
       </c>
       <c r="I26" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="J26" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="K26" s="3">
         <v>-2700</v>
@@ -1658,25 +1658,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>16300</v>
+        <v>15500</v>
       </c>
       <c r="E27" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="F27" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="G27" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="H27" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="I27" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="J27" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="K27" s="3">
         <v>-2700</v>
@@ -1923,10 +1923,10 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-21800</v>
+        <v>-20800</v>
       </c>
       <c r="E32" s="3">
-        <v>-5500</v>
+        <v>-5200</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1976,25 +1976,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>16300</v>
+        <v>15500</v>
       </c>
       <c r="E33" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="F33" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="G33" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="H33" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="I33" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="J33" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="K33" s="3">
         <v>-2700</v>
@@ -2082,25 +2082,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>16300</v>
+        <v>15500</v>
       </c>
       <c r="E35" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="F35" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="G35" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="H35" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="I35" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="J35" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="K35" s="3">
         <v>-2700</v>
@@ -2235,22 +2235,22 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>48600</v>
+        <v>46300</v>
       </c>
       <c r="E41" s="3">
-        <v>50200</v>
+        <v>47900</v>
       </c>
       <c r="F41" s="3">
-        <v>10300</v>
+        <v>9900</v>
       </c>
       <c r="G41" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="H41" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I41" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J41" s="3">
         <v>1700</v>
@@ -2341,25 +2341,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>17800</v>
+        <v>17000</v>
       </c>
       <c r="E43" s="3">
-        <v>20300</v>
+        <v>19400</v>
       </c>
       <c r="F43" s="3">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="G43" s="3">
-        <v>14100</v>
+        <v>13400</v>
       </c>
       <c r="H43" s="3">
-        <v>13100</v>
+        <v>12500</v>
       </c>
       <c r="I43" s="3">
-        <v>13200</v>
+        <v>12600</v>
       </c>
       <c r="J43" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="K43" s="3">
         <v>5600</v>
@@ -2462,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="K45" s="3">
         <v>2100</v>
@@ -2500,25 +2500,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>67200</v>
+        <v>64100</v>
       </c>
       <c r="E46" s="3">
-        <v>71300</v>
+        <v>68000</v>
       </c>
       <c r="F46" s="3">
-        <v>25400</v>
+        <v>24200</v>
       </c>
       <c r="G46" s="3">
-        <v>18900</v>
+        <v>18000</v>
       </c>
       <c r="H46" s="3">
-        <v>14900</v>
+        <v>14200</v>
       </c>
       <c r="I46" s="3">
-        <v>14300</v>
+        <v>13600</v>
       </c>
       <c r="J46" s="3">
-        <v>14500</v>
+        <v>13800</v>
       </c>
       <c r="K46" s="3">
         <v>15900</v>
@@ -2556,22 +2556,22 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="F47" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G47" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H47" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I47" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J47" s="3">
         <v>4600</v>
-      </c>
-      <c r="G47" s="3">
-        <v>4600</v>
-      </c>
-      <c r="H47" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I47" s="3">
-        <v>4600</v>
-      </c>
-      <c r="J47" s="3">
-        <v>4800</v>
       </c>
       <c r="K47" s="3">
         <v>700</v>
@@ -2606,25 +2606,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="E48" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="F48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G48" s="3">
         <v>4500</v>
       </c>
-      <c r="G48" s="3">
-        <v>4700</v>
-      </c>
       <c r="H48" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="I48" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="J48" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="K48" s="3">
         <v>2400</v>
@@ -2662,7 +2662,7 @@
         <v>1900</v>
       </c>
       <c r="E49" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>40</v>
@@ -2924,25 +2924,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>74100</v>
+        <v>70600</v>
       </c>
       <c r="E54" s="3">
-        <v>82700</v>
+        <v>78900</v>
       </c>
       <c r="F54" s="3">
-        <v>34700</v>
+        <v>33100</v>
       </c>
       <c r="G54" s="3">
-        <v>28400</v>
+        <v>27100</v>
       </c>
       <c r="H54" s="3">
-        <v>23800</v>
+        <v>22700</v>
       </c>
       <c r="I54" s="3">
-        <v>22900</v>
+        <v>21900</v>
       </c>
       <c r="J54" s="3">
-        <v>23200</v>
+        <v>22100</v>
       </c>
       <c r="K54" s="3">
         <v>19200</v>
@@ -3019,25 +3019,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
-        <v>3200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>3400</v>
-      </c>
       <c r="H57" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I57" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J57" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K57" s="3">
         <v>1400</v>
@@ -3072,22 +3072,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="E58" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="F58" s="3">
-        <v>9900</v>
+        <v>9400</v>
       </c>
       <c r="G58" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="H58" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I58" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J58" s="3">
         <v>1000</v>
@@ -3125,25 +3125,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E59" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="F59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H59" s="3">
         <v>2900</v>
       </c>
-      <c r="G59" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>3100</v>
-      </c>
       <c r="I59" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J59" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="K59" s="3">
         <v>1200</v>
@@ -3178,25 +3178,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8300</v>
+        <v>7900</v>
       </c>
       <c r="E60" s="3">
-        <v>11200</v>
+        <v>10600</v>
       </c>
       <c r="F60" s="3">
-        <v>15600</v>
+        <v>14900</v>
       </c>
       <c r="G60" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="H60" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="I60" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="J60" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="K60" s="3">
         <v>4100</v>
@@ -3231,7 +3231,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E61" s="3">
         <v>900</v>
@@ -3240,16 +3240,16 @@
         <v>1000</v>
       </c>
       <c r="G61" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H61" s="3">
         <v>1100</v>
       </c>
       <c r="I61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J61" s="3">
         <v>1200</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1300</v>
       </c>
       <c r="K61" s="3">
         <v>1400</v>
@@ -3284,10 +3284,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6800</v>
+        <v>6400</v>
       </c>
       <c r="E62" s="3">
-        <v>28600</v>
+        <v>27300</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -3496,25 +3496,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14800</v>
+        <v>14100</v>
       </c>
       <c r="E66" s="3">
-        <v>39600</v>
+        <v>37800</v>
       </c>
       <c r="F66" s="3">
-        <v>18100</v>
+        <v>17300</v>
       </c>
       <c r="G66" s="3">
-        <v>12300</v>
+        <v>11700</v>
       </c>
       <c r="H66" s="3">
-        <v>10200</v>
+        <v>9700</v>
       </c>
       <c r="I66" s="3">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="J66" s="3">
-        <v>8800</v>
+        <v>8400</v>
       </c>
       <c r="K66" s="3">
         <v>7200</v>
@@ -3782,25 +3782,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-13300</v>
+        <v>-12700</v>
       </c>
       <c r="E72" s="3">
-        <v>-29600</v>
+        <v>-28200</v>
       </c>
       <c r="F72" s="3">
-        <v>-27600</v>
+        <v>-26300</v>
       </c>
       <c r="G72" s="3">
-        <v>-26300</v>
+        <v>-25000</v>
       </c>
       <c r="H72" s="3">
-        <v>-24400</v>
+        <v>-23300</v>
       </c>
       <c r="I72" s="3">
-        <v>-23500</v>
+        <v>-22400</v>
       </c>
       <c r="J72" s="3">
-        <v>-21200</v>
+        <v>-20200</v>
       </c>
       <c r="K72" s="3">
         <v>-21300</v>
@@ -3994,25 +3994,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>59300</v>
+        <v>56500</v>
       </c>
       <c r="E76" s="3">
-        <v>43100</v>
+        <v>41100</v>
       </c>
       <c r="F76" s="3">
-        <v>16600</v>
+        <v>15800</v>
       </c>
       <c r="G76" s="3">
-        <v>16100</v>
+        <v>15300</v>
       </c>
       <c r="H76" s="3">
-        <v>13600</v>
+        <v>12900</v>
       </c>
       <c r="I76" s="3">
-        <v>14000</v>
+        <v>13300</v>
       </c>
       <c r="J76" s="3">
-        <v>14400</v>
+        <v>13700</v>
       </c>
       <c r="K76" s="3">
         <v>12000</v>
@@ -4158,25 +4158,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>16300</v>
+        <v>15500</v>
       </c>
       <c r="E81" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="F81" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="G81" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="H81" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="I81" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="J81" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="K81" s="3">
         <v>-2700</v>
@@ -4235,7 +4235,7 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -4550,13 +4550,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="E89" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="F89" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="G89" s="3">
         <v>-800</v>
@@ -4565,10 +4565,10 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="J89" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="K89" s="3">
         <v>-800</v>
@@ -4783,10 +4783,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="E94" s="3">
-        <v>-7100</v>
+        <v>-6700</v>
       </c>
       <c r="F94" s="3">
         <v>300</v>
@@ -5072,13 +5072,13 @@
         <v>-1300</v>
       </c>
       <c r="E100" s="3">
-        <v>49300</v>
+        <v>47000</v>
       </c>
       <c r="F100" s="3">
-        <v>8200</v>
+        <v>7800</v>
       </c>
       <c r="G100" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="H100" s="3">
         <v>300</v>
@@ -5175,25 +5175,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="E102" s="3">
-        <v>39900</v>
+        <v>38000</v>
       </c>
       <c r="F102" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="G102" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H102" s="3">
         <v>800</v>
       </c>
       <c r="I102" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="J102" s="3">
-        <v>-4900</v>
+        <v>-4600</v>
       </c>
       <c r="K102" s="3">
         <v>-1100</v>

--- a/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,246 +665,259 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7600</v>
+        <v>4200</v>
       </c>
       <c r="E8" s="3">
-        <v>3200</v>
+        <v>7800</v>
       </c>
       <c r="F8" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="G8" s="3">
-        <v>4900</v>
+        <v>3600</v>
       </c>
       <c r="H8" s="3">
-        <v>4200</v>
+        <v>5100</v>
       </c>
       <c r="I8" s="3">
-        <v>8400</v>
+        <v>4400</v>
       </c>
       <c r="J8" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K8" s="3">
         <v>5900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5600</v>
+        <v>3500</v>
       </c>
       <c r="E9" s="3">
-        <v>3100</v>
+        <v>5700</v>
       </c>
       <c r="F9" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I9" s="3">
         <v>2600</v>
       </c>
-      <c r="G9" s="3">
-        <v>3900</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>6300</v>
-      </c>
       <c r="J9" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K9" s="3">
         <v>3800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="E10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
-        <v>900</v>
-      </c>
       <c r="G10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="3">
         <v>1100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1700</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2000</v>
       </c>
       <c r="J10" s="3">
         <v>2100</v>
       </c>
       <c r="K10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L10" s="3">
         <v>-600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,61 +937,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>500</v>
+      </c>
+      <c r="E12" s="3">
         <v>800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>200</v>
       </c>
       <c r="J12" s="3">
         <v>200</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
       <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>100</v>
-      </c>
-      <c r="O12" s="3">
-        <v>200</v>
       </c>
       <c r="P12" s="3">
         <v>200</v>
       </c>
       <c r="Q12" s="3">
+        <v>200</v>
+      </c>
+      <c r="R12" s="3">
         <v>600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1030,19 +1047,22 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>40</v>
@@ -1059,8 +1079,8 @@
       <c r="K14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1083,8 +1103,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,8 +1159,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1154,114 +1180,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>12800</v>
+        <v>11000</v>
       </c>
       <c r="E17" s="3">
-        <v>10500</v>
+        <v>13200</v>
       </c>
       <c r="F17" s="3">
-        <v>4800</v>
+        <v>10800</v>
       </c>
       <c r="G17" s="3">
-        <v>6800</v>
+        <v>4900</v>
       </c>
       <c r="H17" s="3">
-        <v>5200</v>
+        <v>7000</v>
       </c>
       <c r="I17" s="3">
-        <v>10500</v>
+        <v>5400</v>
       </c>
       <c r="J17" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K17" s="3">
         <v>7100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-5200</v>
+        <v>-6800</v>
       </c>
       <c r="E18" s="3">
-        <v>-7300</v>
+        <v>-5400</v>
       </c>
       <c r="F18" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1600</v>
       </c>
       <c r="M18" s="3">
         <v>-1600</v>
       </c>
       <c r="N18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1281,22 +1314,23 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>20800</v>
+        <v>4300</v>
       </c>
       <c r="E20" s="3">
-        <v>5200</v>
+        <v>21500</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
@@ -1305,14 +1339,14 @@
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1334,61 +1368,67 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>15900</v>
+        <v>-2200</v>
       </c>
       <c r="E21" s="3">
-        <v>-1800</v>
+        <v>16400</v>
       </c>
       <c r="F21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1396,10 +1436,10 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1417,7 +1457,7 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1440,73 +1480,79 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>15500</v>
+        <v>-2600</v>
       </c>
       <c r="E23" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P23" s="3">
         <v>-2100</v>
       </c>
-      <c r="J23" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1514,11 +1560,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1546,8 +1592,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1599,114 +1648,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>15500</v>
+        <v>-2500</v>
       </c>
       <c r="E26" s="3">
-        <v>-2200</v>
+        <v>16000</v>
       </c>
       <c r="F26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
-        <v>-2200</v>
-      </c>
       <c r="J26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>15500</v>
+        <v>-2300</v>
       </c>
       <c r="E27" s="3">
-        <v>-1900</v>
+        <v>16000</v>
       </c>
       <c r="F27" s="3">
-        <v>-1200</v>
+        <v>-2000</v>
       </c>
       <c r="G27" s="3">
-        <v>-1700</v>
+        <v>-1300</v>
       </c>
       <c r="H27" s="3">
-        <v>-900</v>
+        <v>-1800</v>
       </c>
       <c r="I27" s="3">
-        <v>-2100</v>
+        <v>-1000</v>
       </c>
       <c r="J27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2700</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-1600</v>
       </c>
       <c r="M27" s="3">
         <v>-1600</v>
       </c>
       <c r="N27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1758,8 +1816,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1811,8 +1872,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1864,8 +1928,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1917,22 +1984,25 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-20800</v>
+        <v>-4300</v>
       </c>
       <c r="E32" s="3">
-        <v>-5200</v>
+        <v>-21500</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-5400</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -1941,14 +2011,14 @@
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1970,61 +2040,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>15500</v>
+        <v>-2300</v>
       </c>
       <c r="E33" s="3">
-        <v>-1900</v>
+        <v>16000</v>
       </c>
       <c r="F33" s="3">
-        <v>-1200</v>
+        <v>-2000</v>
       </c>
       <c r="G33" s="3">
-        <v>-1700</v>
+        <v>-1300</v>
       </c>
       <c r="H33" s="3">
-        <v>-900</v>
+        <v>-1800</v>
       </c>
       <c r="I33" s="3">
-        <v>-2100</v>
+        <v>-1000</v>
       </c>
       <c r="J33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2700</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-1600</v>
       </c>
       <c r="M33" s="3">
         <v>-1600</v>
       </c>
       <c r="N33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2076,119 +2152,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>15500</v>
+        <v>-2300</v>
       </c>
       <c r="E35" s="3">
-        <v>-1900</v>
+        <v>16000</v>
       </c>
       <c r="F35" s="3">
-        <v>-1200</v>
+        <v>-2000</v>
       </c>
       <c r="G35" s="3">
-        <v>-1700</v>
+        <v>-1300</v>
       </c>
       <c r="H35" s="3">
-        <v>-900</v>
+        <v>-1800</v>
       </c>
       <c r="I35" s="3">
-        <v>-2100</v>
+        <v>-1000</v>
       </c>
       <c r="J35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2700</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-1600</v>
       </c>
       <c r="M35" s="3">
         <v>-1600</v>
       </c>
       <c r="N35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2208,8 +2293,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2229,61 +2315,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>46300</v>
+        <v>45500</v>
       </c>
       <c r="E41" s="3">
-        <v>47900</v>
+        <v>47800</v>
       </c>
       <c r="F41" s="3">
-        <v>9900</v>
+        <v>49400</v>
       </c>
       <c r="G41" s="3">
-        <v>4200</v>
+        <v>10200</v>
       </c>
       <c r="H41" s="3">
-        <v>1400</v>
+        <v>4400</v>
       </c>
       <c r="I41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2335,72 +2425,78 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>17000</v>
+        <v>17700</v>
       </c>
       <c r="E43" s="3">
-        <v>19400</v>
+        <v>17500</v>
       </c>
       <c r="F43" s="3">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="G43" s="3">
-        <v>13400</v>
+        <v>14500</v>
       </c>
       <c r="H43" s="3">
-        <v>12500</v>
+        <v>13900</v>
       </c>
       <c r="I43" s="3">
-        <v>12600</v>
+        <v>12900</v>
       </c>
       <c r="J43" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K43" s="3">
         <v>7400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>600</v>
+      </c>
+      <c r="E44" s="3">
         <v>700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>500</v>
-      </c>
-      <c r="F44" s="3">
-        <v>300</v>
       </c>
       <c r="G44" s="3">
         <v>300</v>
@@ -2409,25 +2505,25 @@
         <v>300</v>
       </c>
       <c r="I44" s="3">
+        <v>300</v>
+      </c>
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
       <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>1100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>700</v>
-      </c>
-      <c r="O44" s="3">
-        <v>400</v>
       </c>
       <c r="P44" s="3">
         <v>400</v>
@@ -2436,158 +2532,167 @@
         <v>400</v>
       </c>
       <c r="R44" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="S44" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="L45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R45" s="3">
+        <v>500</v>
+      </c>
+      <c r="S45" s="3">
+        <v>600</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>4700</v>
-      </c>
-      <c r="K45" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M45" s="3">
-        <v>3100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>2300</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1800</v>
-      </c>
-      <c r="P45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>500</v>
-      </c>
-      <c r="R45" s="3">
-        <v>600</v>
-      </c>
-      <c r="S45" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>64100</v>
+        <v>64000</v>
       </c>
       <c r="E46" s="3">
-        <v>68000</v>
+        <v>66100</v>
       </c>
       <c r="F46" s="3">
-        <v>24200</v>
+        <v>70200</v>
       </c>
       <c r="G46" s="3">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="H46" s="3">
-        <v>14200</v>
+        <v>18600</v>
       </c>
       <c r="I46" s="3">
-        <v>13600</v>
+        <v>14700</v>
       </c>
       <c r="J46" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K46" s="3">
         <v>13800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="G47" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="H47" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="I47" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="J47" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K47" s="3">
         <v>4600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>300</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="O47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
@@ -2595,13 +2700,16 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2609,34 +2717,34 @@
         <v>4500</v>
       </c>
       <c r="E48" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="F48" s="3">
-        <v>4300</v>
+        <v>5000</v>
       </c>
       <c r="G48" s="3">
         <v>4500</v>
       </c>
       <c r="H48" s="3">
-        <v>3900</v>
+        <v>4600</v>
       </c>
       <c r="I48" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="J48" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K48" s="3">
         <v>3500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>400</v>
       </c>
       <c r="O48" s="3">
         <v>400</v>
@@ -2653,22 +2761,25 @@
       <c r="S48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="E49" s="3">
         <v>1900</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="G49" s="3">
-        <v>200</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
@@ -2691,8 +2802,8 @@
       <c r="N49" s="3">
         <v>200</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>40</v>
+      <c r="O49" s="3">
+        <v>200</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>40</v>
@@ -2706,8 +2817,11 @@
       <c r="S49" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2759,8 +2873,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2812,8 +2929,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2826,8 +2946,8 @@
       <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>40</v>
+      <c r="G52" s="3">
+        <v>200</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>40</v>
@@ -2841,8 +2961,8 @@
       <c r="K52" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2865,8 +2985,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2918,61 +3041,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>70600</v>
+        <v>70400</v>
       </c>
       <c r="E54" s="3">
-        <v>78900</v>
+        <v>72900</v>
       </c>
       <c r="F54" s="3">
-        <v>33100</v>
+        <v>81400</v>
       </c>
       <c r="G54" s="3">
-        <v>27100</v>
+        <v>34100</v>
       </c>
       <c r="H54" s="3">
-        <v>22700</v>
+        <v>27900</v>
       </c>
       <c r="I54" s="3">
-        <v>21900</v>
+        <v>23400</v>
       </c>
       <c r="J54" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K54" s="3">
         <v>22100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2992,8 +3121,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3013,220 +3143,233 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3100</v>
+        <v>2400</v>
       </c>
       <c r="E57" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F57" s="3">
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="G57" s="3">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="H57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E58" s="3">
-        <v>4100</v>
+        <v>2900</v>
       </c>
       <c r="F58" s="3">
-        <v>9400</v>
+        <v>4200</v>
       </c>
       <c r="G58" s="3">
-        <v>2900</v>
+        <v>9700</v>
       </c>
       <c r="H58" s="3">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="I58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J58" s="3">
         <v>1900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1500</v>
       </c>
       <c r="L58" s="3">
         <v>1500</v>
       </c>
       <c r="M58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N58" s="3">
         <v>1300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
-        <v>3500</v>
-      </c>
       <c r="F59" s="3">
-        <v>2800</v>
+        <v>3600</v>
       </c>
       <c r="G59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I59" s="3">
         <v>3000</v>
       </c>
-      <c r="H59" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2000</v>
-      </c>
       <c r="J59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K59" s="3">
         <v>2500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1700</v>
       </c>
       <c r="N59" s="3">
         <v>1700</v>
       </c>
       <c r="O59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P59" s="3">
         <v>1600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="E60" s="3">
-        <v>10600</v>
+        <v>8100</v>
       </c>
       <c r="F60" s="3">
-        <v>14900</v>
+        <v>11000</v>
       </c>
       <c r="G60" s="3">
-        <v>9100</v>
+        <v>15300</v>
       </c>
       <c r="H60" s="3">
-        <v>7100</v>
+        <v>9400</v>
       </c>
       <c r="I60" s="3">
-        <v>5900</v>
+        <v>7300</v>
       </c>
       <c r="J60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K60" s="3">
         <v>5600</v>
-      </c>
-      <c r="K60" s="3">
-        <v>4100</v>
       </c>
       <c r="L60" s="3">
         <v>4100</v>
       </c>
       <c r="M60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N60" s="3">
         <v>5300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3237,7 +3380,7 @@
         <v>900</v>
       </c>
       <c r="F61" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G61" s="3">
         <v>1000</v>
@@ -3252,7 +3395,7 @@
         <v>1200</v>
       </c>
       <c r="K61" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L61" s="3">
         <v>1400</v>
@@ -3261,7 +3404,7 @@
         <v>1400</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3278,25 +3421,28 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6400</v>
+        <v>2700</v>
       </c>
       <c r="E62" s="3">
-        <v>27300</v>
+        <v>6600</v>
       </c>
       <c r="F62" s="3">
+        <v>28200</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>200</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>40</v>
@@ -3313,8 +3459,8 @@
       <c r="M62" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3331,8 +3477,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3384,8 +3533,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3437,8 +3589,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3490,61 +3645,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14100</v>
+        <v>10000</v>
       </c>
       <c r="E66" s="3">
-        <v>37800</v>
+        <v>14500</v>
       </c>
       <c r="F66" s="3">
-        <v>17300</v>
+        <v>39000</v>
       </c>
       <c r="G66" s="3">
-        <v>11700</v>
+        <v>17800</v>
       </c>
       <c r="H66" s="3">
-        <v>9700</v>
+        <v>12100</v>
       </c>
       <c r="I66" s="3">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="J66" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K66" s="3">
         <v>8400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>7200</v>
       </c>
       <c r="L66" s="3">
         <v>7200</v>
       </c>
       <c r="M66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="N66" s="3">
         <v>8200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3564,8 +3725,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3617,8 +3779,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3670,8 +3835,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3723,8 +3891,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3776,61 +3947,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-12700</v>
+        <v>-15400</v>
       </c>
       <c r="E72" s="3">
-        <v>-28200</v>
+        <v>-13100</v>
       </c>
       <c r="F72" s="3">
-        <v>-26300</v>
+        <v>-29100</v>
       </c>
       <c r="G72" s="3">
-        <v>-25000</v>
+        <v>-27100</v>
       </c>
       <c r="H72" s="3">
-        <v>-23300</v>
+        <v>-25800</v>
       </c>
       <c r="I72" s="3">
-        <v>-22400</v>
+        <v>-24000</v>
       </c>
       <c r="J72" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-20200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-21300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-10100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-9500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3882,8 +4059,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3935,8 +4115,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3988,61 +4171,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>56500</v>
+        <v>60400</v>
       </c>
       <c r="E76" s="3">
-        <v>41100</v>
+        <v>58300</v>
       </c>
       <c r="F76" s="3">
+        <v>42400</v>
+      </c>
+      <c r="G76" s="3">
+        <v>16300</v>
+      </c>
+      <c r="H76" s="3">
         <v>15800</v>
       </c>
-      <c r="G76" s="3">
-        <v>15300</v>
-      </c>
-      <c r="H76" s="3">
-        <v>12900</v>
-      </c>
       <c r="I76" s="3">
-        <v>13300</v>
+        <v>13400</v>
       </c>
       <c r="J76" s="3">
         <v>13700</v>
       </c>
       <c r="K76" s="3">
+        <v>13700</v>
+      </c>
+      <c r="L76" s="3">
         <v>12000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4094,119 +4283,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>15500</v>
+        <v>-2300</v>
       </c>
       <c r="E81" s="3">
-        <v>-1900</v>
+        <v>16000</v>
       </c>
       <c r="F81" s="3">
-        <v>-1200</v>
+        <v>-2000</v>
       </c>
       <c r="G81" s="3">
-        <v>-1700</v>
+        <v>-1300</v>
       </c>
       <c r="H81" s="3">
-        <v>-900</v>
+        <v>-1800</v>
       </c>
       <c r="I81" s="3">
-        <v>-2100</v>
+        <v>-1000</v>
       </c>
       <c r="J81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2700</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-1600</v>
       </c>
       <c r="M81" s="3">
         <v>-1600</v>
       </c>
       <c r="N81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4226,8 +4424,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4238,13 +4437,13 @@
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -4253,14 +4452,14 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
@@ -4279,8 +4478,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4332,8 +4534,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4385,8 +4590,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4438,8 +4646,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4491,8 +4702,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4544,61 +4758,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3200</v>
+        <v>-500</v>
       </c>
       <c r="E89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G89" s="3">
         <v>-2400</v>
       </c>
-      <c r="F89" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>900</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4618,40 +4838,41 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4671,8 +4892,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4724,8 +4948,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4777,47 +5004,50 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>3700</v>
+        <v>-3900</v>
       </c>
       <c r="E94" s="3">
-        <v>-6700</v>
+        <v>3800</v>
       </c>
       <c r="F94" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="G94" s="3">
         <v>300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -4830,8 +5060,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4851,8 +5084,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4904,8 +5138,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4957,8 +5194,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5010,8 +5250,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5063,76 +5306,82 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1300</v>
       </c>
-      <c r="E100" s="3">
-        <v>47000</v>
-      </c>
       <c r="F100" s="3">
-        <v>7800</v>
+        <v>48500</v>
       </c>
       <c r="G100" s="3">
-        <v>4400</v>
+        <v>8100</v>
       </c>
       <c r="H100" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>8000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -5140,14 +5389,14 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -5169,57 +5418,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1500</v>
+        <v>-2200</v>
       </c>
       <c r="E102" s="3">
-        <v>38000</v>
+        <v>-1600</v>
       </c>
       <c r="F102" s="3">
-        <v>5600</v>
+        <v>39200</v>
       </c>
       <c r="G102" s="3">
-        <v>2800</v>
+        <v>5800</v>
       </c>
       <c r="H102" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
-        <v>-1000</v>
-      </c>
       <c r="J102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6800</v>
-      </c>
-      <c r="M102" s="3">
-        <v>300</v>
       </c>
       <c r="N102" s="3">
         <v>300</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R102" s="3">
         <v>700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
@@ -757,22 +757,22 @@
         <v>4200</v>
       </c>
       <c r="E8" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="F8" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="G8" s="3">
         <v>3600</v>
       </c>
       <c r="H8" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="I8" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="J8" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="K8" s="3">
         <v>5900</v>
@@ -819,10 +819,10 @@
         <v>3200</v>
       </c>
       <c r="G9" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="H9" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="I9" s="3">
         <v>2600</v>
@@ -1187,25 +1187,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="E17" s="3">
-        <v>13200</v>
+        <v>13000</v>
       </c>
       <c r="F17" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="G17" s="3">
         <v>4900</v>
       </c>
       <c r="H17" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="I17" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="J17" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="K17" s="3">
         <v>7100</v>
@@ -1243,10 +1243,10 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="E18" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="F18" s="3">
         <v>-7500</v>
@@ -1324,10 +1324,10 @@
         <v>4300</v>
       </c>
       <c r="E20" s="3">
-        <v>21500</v>
+        <v>21300</v>
       </c>
       <c r="F20" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1380,7 +1380,7 @@
         <v>-2200</v>
       </c>
       <c r="E21" s="3">
-        <v>16400</v>
+        <v>16200</v>
       </c>
       <c r="F21" s="3">
         <v>-1900</v>
@@ -1489,16 +1489,16 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="E23" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="F23" s="3">
         <v>-2300</v>
       </c>
       <c r="G23" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="H23" s="3">
         <v>-1900</v>
@@ -1657,13 +1657,13 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="E26" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="F26" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="G26" s="3">
         <v>-1400</v>
@@ -1713,10 +1713,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="E27" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="F27" s="3">
         <v>-2000</v>
@@ -1996,10 +1996,10 @@
         <v>-4300</v>
       </c>
       <c r="E32" s="3">
-        <v>-21500</v>
+        <v>-21300</v>
       </c>
       <c r="F32" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="E33" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="F33" s="3">
         <v>-2000</v>
@@ -2161,10 +2161,10 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="E35" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="F35" s="3">
         <v>-2000</v>
@@ -2322,19 +2322,19 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>45500</v>
+        <v>45100</v>
       </c>
       <c r="E41" s="3">
-        <v>47800</v>
+        <v>47300</v>
       </c>
       <c r="F41" s="3">
-        <v>49400</v>
+        <v>48900</v>
       </c>
       <c r="G41" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="H41" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="I41" s="3">
         <v>1500</v>
@@ -2434,25 +2434,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="E43" s="3">
-        <v>17500</v>
+        <v>17300</v>
       </c>
       <c r="F43" s="3">
-        <v>20000</v>
+        <v>19800</v>
       </c>
       <c r="G43" s="3">
-        <v>14500</v>
+        <v>14300</v>
       </c>
       <c r="H43" s="3">
-        <v>13900</v>
+        <v>13700</v>
       </c>
       <c r="I43" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="J43" s="3">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="K43" s="3">
         <v>7400</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>4700</v>
@@ -2602,25 +2602,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>64000</v>
+        <v>63300</v>
       </c>
       <c r="E46" s="3">
-        <v>66100</v>
+        <v>65400</v>
       </c>
       <c r="F46" s="3">
-        <v>70200</v>
+        <v>69400</v>
       </c>
       <c r="G46" s="3">
-        <v>25000</v>
+        <v>24700</v>
       </c>
       <c r="H46" s="3">
-        <v>18600</v>
+        <v>18400</v>
       </c>
       <c r="I46" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="J46" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="K46" s="3">
         <v>13800</v>
@@ -2667,13 +2667,13 @@
         <v>4000</v>
       </c>
       <c r="G47" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="H47" s="3">
         <v>4500</v>
       </c>
       <c r="I47" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="J47" s="3">
         <v>4500</v>
@@ -2714,7 +2714,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="E48" s="3">
         <v>4600</v>
@@ -2723,7 +2723,7 @@
         <v>5000</v>
       </c>
       <c r="G48" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="H48" s="3">
         <v>4600</v>
@@ -2732,7 +2732,7 @@
         <v>4000</v>
       </c>
       <c r="J48" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="K48" s="3">
         <v>3500</v>
@@ -2776,7 +2776,7 @@
         <v>1900</v>
       </c>
       <c r="F49" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>40</v>
@@ -3050,25 +3050,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>70400</v>
+        <v>69700</v>
       </c>
       <c r="E54" s="3">
-        <v>72900</v>
+        <v>72100</v>
       </c>
       <c r="F54" s="3">
-        <v>81400</v>
+        <v>80500</v>
       </c>
       <c r="G54" s="3">
-        <v>34100</v>
+        <v>33800</v>
       </c>
       <c r="H54" s="3">
-        <v>27900</v>
+        <v>27600</v>
       </c>
       <c r="I54" s="3">
-        <v>23400</v>
+        <v>23100</v>
       </c>
       <c r="J54" s="3">
-        <v>22500</v>
+        <v>22300</v>
       </c>
       <c r="K54" s="3">
         <v>22100</v>
@@ -3153,13 +3153,13 @@
         <v>2400</v>
       </c>
       <c r="E57" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F57" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="G57" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="H57" s="3">
         <v>3300</v>
@@ -3206,16 +3206,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E58" s="3">
         <v>2900</v>
       </c>
       <c r="F58" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="G58" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="H58" s="3">
         <v>3000</v>
@@ -3271,10 +3271,10 @@
         <v>3600</v>
       </c>
       <c r="G59" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H59" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="I59" s="3">
         <v>3000</v>
@@ -3318,22 +3318,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="E60" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="F60" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="G60" s="3">
-        <v>15300</v>
+        <v>15200</v>
       </c>
       <c r="H60" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="I60" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="J60" s="3">
         <v>6000</v>
@@ -3386,7 +3386,7 @@
         <v>1000</v>
       </c>
       <c r="H61" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I61" s="3">
         <v>1100</v>
@@ -3436,7 +3436,7 @@
         <v>6600</v>
       </c>
       <c r="F62" s="3">
-        <v>28200</v>
+        <v>27900</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -3654,25 +3654,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="E66" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="F66" s="3">
-        <v>39000</v>
+        <v>38600</v>
       </c>
       <c r="G66" s="3">
-        <v>17800</v>
+        <v>17600</v>
       </c>
       <c r="H66" s="3">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="I66" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="J66" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="K66" s="3">
         <v>8400</v>
@@ -3956,25 +3956,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-15400</v>
+        <v>-15200</v>
       </c>
       <c r="E72" s="3">
-        <v>-13100</v>
+        <v>-13000</v>
       </c>
       <c r="F72" s="3">
-        <v>-29100</v>
+        <v>-28800</v>
       </c>
       <c r="G72" s="3">
-        <v>-27100</v>
+        <v>-26800</v>
       </c>
       <c r="H72" s="3">
-        <v>-25800</v>
+        <v>-25600</v>
       </c>
       <c r="I72" s="3">
-        <v>-24000</v>
+        <v>-23800</v>
       </c>
       <c r="J72" s="3">
-        <v>-23100</v>
+        <v>-22800</v>
       </c>
       <c r="K72" s="3">
         <v>-20200</v>
@@ -4180,25 +4180,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>60400</v>
+        <v>59800</v>
       </c>
       <c r="E76" s="3">
-        <v>58300</v>
+        <v>57700</v>
       </c>
       <c r="F76" s="3">
-        <v>42400</v>
+        <v>41900</v>
       </c>
       <c r="G76" s="3">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="H76" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="I76" s="3">
-        <v>13400</v>
+        <v>13200</v>
       </c>
       <c r="J76" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="K76" s="3">
         <v>13700</v>
@@ -4353,10 +4353,10 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="E81" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="F81" s="3">
         <v>-2000</v>
@@ -4845,25 +4845,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="J91" s="3">
-        <v>-200</v>
+        <v>-1600</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>3800</v>
       </c>
       <c r="F94" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="G94" s="3">
         <v>300</v>
@@ -5321,10 +5321,10 @@
         <v>-1300</v>
       </c>
       <c r="F100" s="3">
-        <v>48500</v>
+        <v>48000</v>
       </c>
       <c r="G100" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="H100" s="3">
         <v>4500</v>
@@ -5433,13 +5433,13 @@
         <v>-1600</v>
       </c>
       <c r="F102" s="3">
-        <v>39200</v>
+        <v>38800</v>
       </c>
       <c r="G102" s="3">
         <v>5800</v>
       </c>
       <c r="H102" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="I102" s="3">
         <v>800</v>

--- a/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>RCON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,259 +665,272 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J8" s="3">
         <v>4200</v>
       </c>
-      <c r="E8" s="3">
-        <v>7700</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4300</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E9" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K9" s="3">
+        <v>6500</v>
+      </c>
+      <c r="L9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O9" s="3">
         <v>5700</v>
       </c>
-      <c r="F9" s="3">
-        <v>3200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H9" s="3">
-        <v>3900</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J9" s="3">
-        <v>6500</v>
-      </c>
-      <c r="K9" s="3">
-        <v>3800</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2900</v>
-      </c>
-      <c r="M9" s="3">
-        <v>2300</v>
-      </c>
-      <c r="N9" s="3">
-        <v>5700</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
-        <v>2100</v>
-      </c>
       <c r="F10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
-        <v>1000</v>
-      </c>
       <c r="H10" s="3">
+        <v>900</v>
+      </c>
+      <c r="I10" s="3">
         <v>1100</v>
       </c>
-      <c r="I10" s="3">
-        <v>1700</v>
-      </c>
       <c r="J10" s="3">
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="K10" s="3">
         <v>2100</v>
       </c>
       <c r="L10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M10" s="3">
         <v>-600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,64 +951,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>200</v>
       </c>
       <c r="K12" s="3">
         <v>200</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
       </c>
       <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>100</v>
-      </c>
-      <c r="P12" s="3">
-        <v>200</v>
       </c>
       <c r="Q12" s="3">
         <v>200</v>
       </c>
       <c r="R12" s="3">
+        <v>200</v>
+      </c>
+      <c r="S12" s="3">
         <v>600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1050,22 +1067,25 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>40</v>
@@ -1082,8 +1102,8 @@
       <c r="L14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1106,8 +1126,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1162,8 +1185,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1181,120 +1207,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>10900</v>
+        <v>8400</v>
       </c>
       <c r="E17" s="3">
-        <v>13000</v>
+        <v>10600</v>
       </c>
       <c r="F17" s="3">
+        <v>12600</v>
+      </c>
+      <c r="G17" s="3">
+        <v>10400</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K17" s="3">
         <v>10700</v>
       </c>
-      <c r="G17" s="3">
-        <v>4900</v>
-      </c>
-      <c r="H17" s="3">
-        <v>6900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>5300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>10700</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-6700</v>
+        <v>-2100</v>
       </c>
       <c r="E18" s="3">
-        <v>-5300</v>
+        <v>-6500</v>
       </c>
       <c r="F18" s="3">
-        <v>-7500</v>
+        <v>-5100</v>
       </c>
       <c r="G18" s="3">
-        <v>-1300</v>
+        <v>-7200</v>
       </c>
       <c r="H18" s="3">
-        <v>-1900</v>
+        <v>-1200</v>
       </c>
       <c r="I18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-1600</v>
       </c>
       <c r="N18" s="3">
         <v>-1600</v>
       </c>
       <c r="O18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1315,25 +1348,26 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>4300</v>
+        <v>-2000</v>
       </c>
       <c r="E20" s="3">
-        <v>21300</v>
+        <v>4200</v>
       </c>
       <c r="F20" s="3">
-        <v>5300</v>
+        <v>20600</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
@@ -1342,14 +1376,14 @@
         <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1371,78 +1405,84 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-2200</v>
+        <v>-3800</v>
       </c>
       <c r="E21" s="3">
-        <v>16200</v>
+        <v>-2100</v>
       </c>
       <c r="F21" s="3">
-        <v>-1900</v>
+        <v>15700</v>
       </c>
       <c r="G21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="P21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-2000</v>
       </c>
-      <c r="K21" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-900</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1460,7 +1500,7 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1483,79 +1523,85 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2500</v>
       </c>
-      <c r="E23" s="3">
-        <v>15800</v>
-      </c>
       <c r="F23" s="3">
-        <v>-2300</v>
+        <v>15400</v>
       </c>
       <c r="G23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
-        <v>-1900</v>
-      </c>
       <c r="I23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1563,11 +1609,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1595,8 +1641,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1651,120 +1700,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
-        <v>15800</v>
-      </c>
       <c r="F26" s="3">
+        <v>15300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
-        <v>-1900</v>
-      </c>
       <c r="I26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2200</v>
       </c>
-      <c r="E27" s="3">
-        <v>15800</v>
-      </c>
       <c r="F27" s="3">
-        <v>-2000</v>
+        <v>15300</v>
       </c>
       <c r="G27" s="3">
-        <v>-1300</v>
+        <v>-1900</v>
       </c>
       <c r="H27" s="3">
-        <v>-1800</v>
+        <v>-1200</v>
       </c>
       <c r="I27" s="3">
-        <v>-1000</v>
+        <v>-1700</v>
       </c>
       <c r="J27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2700</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-1600</v>
       </c>
       <c r="N27" s="3">
         <v>-1600</v>
       </c>
       <c r="O27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1819,8 +1877,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1875,8 +1936,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1931,8 +1995,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1987,25 +2054,28 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-4300</v>
+        <v>2000</v>
       </c>
       <c r="E32" s="3">
-        <v>-21300</v>
+        <v>-4200</v>
       </c>
       <c r="F32" s="3">
-        <v>-5300</v>
+        <v>-20600</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-5200</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
@@ -2014,14 +2084,14 @@
         <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2043,64 +2113,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2200</v>
       </c>
-      <c r="E33" s="3">
-        <v>15800</v>
-      </c>
       <c r="F33" s="3">
-        <v>-2000</v>
+        <v>15300</v>
       </c>
       <c r="G33" s="3">
-        <v>-1300</v>
+        <v>-1900</v>
       </c>
       <c r="H33" s="3">
-        <v>-1800</v>
+        <v>-1200</v>
       </c>
       <c r="I33" s="3">
-        <v>-1000</v>
+        <v>-1700</v>
       </c>
       <c r="J33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-1600</v>
       </c>
       <c r="N33" s="3">
         <v>-1600</v>
       </c>
       <c r="O33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2155,125 +2231,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2200</v>
       </c>
-      <c r="E35" s="3">
-        <v>15800</v>
-      </c>
       <c r="F35" s="3">
-        <v>-2000</v>
+        <v>15300</v>
       </c>
       <c r="G35" s="3">
-        <v>-1300</v>
+        <v>-1900</v>
       </c>
       <c r="H35" s="3">
-        <v>-1800</v>
+        <v>-1200</v>
       </c>
       <c r="I35" s="3">
-        <v>-1000</v>
+        <v>-1700</v>
       </c>
       <c r="J35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-1600</v>
       </c>
       <c r="N35" s="3">
         <v>-1600</v>
       </c>
       <c r="O35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2294,8 +2379,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2316,64 +2402,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>45100</v>
+        <v>37100</v>
       </c>
       <c r="E41" s="3">
-        <v>47300</v>
+        <v>43700</v>
       </c>
       <c r="F41" s="3">
-        <v>48900</v>
+        <v>45900</v>
       </c>
       <c r="G41" s="3">
-        <v>10100</v>
+        <v>47400</v>
       </c>
       <c r="H41" s="3">
-        <v>4300</v>
+        <v>9800</v>
       </c>
       <c r="I41" s="3">
-        <v>1500</v>
+        <v>4200</v>
       </c>
       <c r="J41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2428,78 +2518,84 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>17500</v>
+        <v>23800</v>
       </c>
       <c r="E43" s="3">
-        <v>17300</v>
+        <v>17000</v>
       </c>
       <c r="F43" s="3">
-        <v>19800</v>
+        <v>16800</v>
       </c>
       <c r="G43" s="3">
-        <v>14300</v>
+        <v>19200</v>
       </c>
       <c r="H43" s="3">
-        <v>13700</v>
+        <v>13900</v>
       </c>
       <c r="I43" s="3">
+        <v>13300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K43" s="3">
         <v>12800</v>
       </c>
-      <c r="J43" s="3">
-        <v>12800</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>10500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E44" s="3">
+        <v>500</v>
+      </c>
+      <c r="F44" s="3">
         <v>700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>500</v>
-      </c>
-      <c r="G44" s="3">
-        <v>300</v>
       </c>
       <c r="H44" s="3">
         <v>300</v>
@@ -2511,22 +2607,22 @@
         <v>200</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <v>1100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>700</v>
-      </c>
-      <c r="P44" s="3">
-        <v>400</v>
       </c>
       <c r="Q44" s="3">
         <v>400</v>
@@ -2535,13 +2631,16 @@
         <v>400</v>
       </c>
       <c r="S44" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="T44" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -2549,153 +2648,159 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>63300</v>
+        <v>61800</v>
       </c>
       <c r="E46" s="3">
-        <v>65400</v>
+        <v>61400</v>
       </c>
       <c r="F46" s="3">
-        <v>69400</v>
+        <v>63400</v>
       </c>
       <c r="G46" s="3">
-        <v>24700</v>
+        <v>67300</v>
       </c>
       <c r="H46" s="3">
-        <v>18400</v>
+        <v>24000</v>
       </c>
       <c r="I46" s="3">
-        <v>14500</v>
+        <v>17800</v>
       </c>
       <c r="J46" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K46" s="3">
         <v>13900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>100</v>
+      </c>
+      <c r="E47" s="3">
         <v>200</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
       <c r="F47" s="3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>4400</v>
+        <v>3900</v>
       </c>
       <c r="H47" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I47" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K47" s="3">
         <v>4500</v>
       </c>
-      <c r="I47" s="3">
-        <v>4400</v>
-      </c>
-      <c r="J47" s="3">
-        <v>4500</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>300</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="P47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
       <c r="Q47" s="3">
         <v>0</v>
       </c>
@@ -2703,51 +2808,54 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F48" s="3">
         <v>4400</v>
       </c>
-      <c r="E48" s="3">
-        <v>4600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>5000</v>
-      </c>
       <c r="G48" s="3">
-        <v>4400</v>
+        <v>4800</v>
       </c>
       <c r="H48" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="I48" s="3">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="J48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K48" s="3">
         <v>3700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1300</v>
-      </c>
-      <c r="O48" s="3">
-        <v>400</v>
       </c>
       <c r="P48" s="3">
         <v>400</v>
@@ -2764,25 +2872,28 @@
       <c r="T48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G49" s="3">
         <v>1900</v>
       </c>
-      <c r="F49" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="H49" s="3">
-        <v>200</v>
       </c>
       <c r="I49" s="3">
         <v>200</v>
@@ -2805,8 +2916,8 @@
       <c r="O49" s="3">
         <v>200</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>40</v>
+      <c r="P49" s="3">
+        <v>200</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>40</v>
@@ -2820,8 +2931,11 @@
       <c r="T49" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2876,8 +2990,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2932,13 +3049,16 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
@@ -2949,8 +3069,8 @@
       <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>40</v>
+      <c r="H52" s="3">
+        <v>200</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>40</v>
@@ -2964,8 +3084,8 @@
       <c r="L52" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2988,8 +3108,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3044,64 +3167,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>69700</v>
+        <v>68100</v>
       </c>
       <c r="E54" s="3">
-        <v>72100</v>
+        <v>67500</v>
       </c>
       <c r="F54" s="3">
-        <v>80500</v>
+        <v>69900</v>
       </c>
       <c r="G54" s="3">
-        <v>33800</v>
+        <v>78100</v>
       </c>
       <c r="H54" s="3">
-        <v>27600</v>
+        <v>32700</v>
       </c>
       <c r="I54" s="3">
-        <v>23100</v>
+        <v>26800</v>
       </c>
       <c r="J54" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K54" s="3">
         <v>22300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>19200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>20900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3122,8 +3251,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3144,232 +3274,245 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E57" s="3">
-        <v>3100</v>
+        <v>2300</v>
       </c>
       <c r="F57" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="G57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
-        <v>3300</v>
-      </c>
       <c r="I57" s="3">
-        <v>2100</v>
+        <v>3200</v>
       </c>
       <c r="J57" s="3">
         <v>2000</v>
       </c>
       <c r="K57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E58" s="3">
         <v>2800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>9300</v>
+      </c>
+      <c r="I58" s="3">
         <v>2900</v>
       </c>
-      <c r="F58" s="3">
-        <v>4100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>9600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2200</v>
-      </c>
       <c r="J58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1500</v>
       </c>
       <c r="M58" s="3">
         <v>1500</v>
       </c>
       <c r="N58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O58" s="3">
         <v>1300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="E59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
-        <v>3600</v>
-      </c>
       <c r="G59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H59" s="3">
         <v>2800</v>
       </c>
-      <c r="H59" s="3">
-        <v>3000</v>
-      </c>
       <c r="I59" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="J59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1700</v>
       </c>
       <c r="O59" s="3">
         <v>1700</v>
       </c>
       <c r="P59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7500</v>
+        <v>7100</v>
       </c>
       <c r="E60" s="3">
-        <v>8000</v>
+        <v>7300</v>
       </c>
       <c r="F60" s="3">
-        <v>10900</v>
+        <v>7800</v>
       </c>
       <c r="G60" s="3">
-        <v>15200</v>
+        <v>10500</v>
       </c>
       <c r="H60" s="3">
-        <v>9300</v>
+        <v>14700</v>
       </c>
       <c r="I60" s="3">
-        <v>7200</v>
+        <v>9000</v>
       </c>
       <c r="J60" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K60" s="3">
         <v>6000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5600</v>
-      </c>
-      <c r="L60" s="3">
-        <v>4100</v>
       </c>
       <c r="M60" s="3">
         <v>4100</v>
       </c>
       <c r="N60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="O60" s="3">
         <v>5300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3377,28 +3520,28 @@
         <v>800</v>
       </c>
       <c r="E61" s="3">
+        <v>800</v>
+      </c>
+      <c r="F61" s="3">
+        <v>800</v>
+      </c>
+      <c r="G61" s="3">
         <v>900</v>
-      </c>
-      <c r="F61" s="3">
-        <v>900</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1000</v>
       </c>
       <c r="H61" s="3">
         <v>1000</v>
       </c>
       <c r="I61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J61" s="3">
         <v>1100</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1200</v>
       </c>
       <c r="K61" s="3">
         <v>1200</v>
       </c>
       <c r="L61" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="M61" s="3">
         <v>1400</v>
@@ -3407,7 +3550,7 @@
         <v>1400</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3424,28 +3567,31 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2700</v>
+        <v>5200</v>
       </c>
       <c r="E62" s="3">
-        <v>6600</v>
+        <v>2600</v>
       </c>
       <c r="F62" s="3">
-        <v>27900</v>
+        <v>6400</v>
       </c>
       <c r="G62" s="3">
+        <v>27000</v>
+      </c>
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>200</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>40</v>
@@ -3462,8 +3608,8 @@
       <c r="N62" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3480,8 +3626,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3536,8 +3685,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3592,8 +3744,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3648,64 +3803,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9900</v>
+        <v>12100</v>
       </c>
       <c r="E66" s="3">
-        <v>14400</v>
+        <v>9600</v>
       </c>
       <c r="F66" s="3">
-        <v>38600</v>
+        <v>14000</v>
       </c>
       <c r="G66" s="3">
-        <v>17600</v>
+        <v>37400</v>
       </c>
       <c r="H66" s="3">
-        <v>12000</v>
+        <v>17100</v>
       </c>
       <c r="I66" s="3">
-        <v>9900</v>
+        <v>11600</v>
       </c>
       <c r="J66" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K66" s="3">
         <v>8700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>7200</v>
       </c>
       <c r="M66" s="3">
         <v>7200</v>
       </c>
       <c r="N66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="O66" s="3">
         <v>8200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3726,8 +3887,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3782,8 +3944,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3838,8 +4003,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3894,8 +4062,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3950,64 +4121,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-15200</v>
+        <v>-18900</v>
       </c>
       <c r="E72" s="3">
-        <v>-13000</v>
+        <v>-14800</v>
       </c>
       <c r="F72" s="3">
-        <v>-28800</v>
+        <v>-12600</v>
       </c>
       <c r="G72" s="3">
-        <v>-26800</v>
+        <v>-27900</v>
       </c>
       <c r="H72" s="3">
-        <v>-25600</v>
+        <v>-26000</v>
       </c>
       <c r="I72" s="3">
-        <v>-23800</v>
+        <v>-24800</v>
       </c>
       <c r="J72" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-22800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-20200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-21300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-18200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-14200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-9500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4062,8 +4239,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4118,8 +4298,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4174,64 +4357,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>59800</v>
+        <v>56000</v>
       </c>
       <c r="E76" s="3">
-        <v>57700</v>
+        <v>58000</v>
       </c>
       <c r="F76" s="3">
-        <v>41900</v>
+        <v>56000</v>
       </c>
       <c r="G76" s="3">
-        <v>16100</v>
+        <v>40700</v>
       </c>
       <c r="H76" s="3">
         <v>15600</v>
       </c>
       <c r="I76" s="3">
-        <v>13200</v>
+        <v>15200</v>
       </c>
       <c r="J76" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K76" s="3">
         <v>13600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4286,125 +4475,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2200</v>
       </c>
-      <c r="E81" s="3">
-        <v>15800</v>
-      </c>
       <c r="F81" s="3">
-        <v>-2000</v>
+        <v>15300</v>
       </c>
       <c r="G81" s="3">
-        <v>-1300</v>
+        <v>-1900</v>
       </c>
       <c r="H81" s="3">
-        <v>-1800</v>
+        <v>-1200</v>
       </c>
       <c r="I81" s="3">
-        <v>-1000</v>
+        <v>-1700</v>
       </c>
       <c r="J81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-1600</v>
       </c>
       <c r="N81" s="3">
         <v>-1600</v>
       </c>
       <c r="O81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4425,19 +4623,20 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -4446,7 +4645,7 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -4455,14 +4654,14 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
@@ -4481,8 +4680,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4537,8 +4739,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4593,8 +4798,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4649,8 +4857,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4705,8 +4916,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4761,64 +4975,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-500</v>
+        <v>-3600</v>
       </c>
       <c r="E89" s="3">
-        <v>-3300</v>
+        <v>-400</v>
       </c>
       <c r="F89" s="3">
-        <v>-2500</v>
+        <v>-3200</v>
       </c>
       <c r="G89" s="3">
         <v>-2400</v>
       </c>
       <c r="H89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>900</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4839,43 +5059,44 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4895,8 +5116,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4951,8 +5175,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5007,50 +5234,53 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3900</v>
+        <v>-4700</v>
       </c>
       <c r="E94" s="3">
-        <v>3800</v>
+        <v>-3700</v>
       </c>
       <c r="F94" s="3">
-        <v>-6900</v>
+        <v>3700</v>
       </c>
       <c r="G94" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="H94" s="3">
         <v>300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5063,8 +5293,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5085,8 +5318,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5141,8 +5375,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5197,8 +5434,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5253,8 +5493,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5309,82 +5552,88 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1300</v>
       </c>
-      <c r="F100" s="3">
-        <v>48000</v>
-      </c>
       <c r="G100" s="3">
+        <v>46500</v>
+      </c>
+      <c r="H100" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I100" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>300</v>
+      </c>
+      <c r="K100" s="3">
+        <v>400</v>
+      </c>
+      <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>8000</v>
       </c>
-      <c r="H100" s="3">
-        <v>4500</v>
-      </c>
-      <c r="I100" s="3">
-        <v>300</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="O100" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P100" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>8000</v>
-      </c>
-      <c r="N100" s="3">
-        <v>2900</v>
-      </c>
-      <c r="O100" s="3">
-        <v>800</v>
-      </c>
-      <c r="P100" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="E101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -5392,14 +5641,14 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -5421,60 +5670,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2200</v>
+        <v>-6600</v>
       </c>
       <c r="E102" s="3">
-        <v>-1600</v>
+        <v>-2100</v>
       </c>
       <c r="F102" s="3">
-        <v>38800</v>
+        <v>-1500</v>
       </c>
       <c r="G102" s="3">
-        <v>5800</v>
+        <v>37600</v>
       </c>
       <c r="H102" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I102" s="3">
         <v>2800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6800</v>
-      </c>
-      <c r="N102" s="3">
-        <v>300</v>
       </c>
       <c r="O102" s="3">
         <v>300</v>
       </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
       </c>
       <c r="R102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S102" s="3">
         <v>700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>RCON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,272 +665,285 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3">
         <v>6300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3">
         <v>4500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3">
         <v>1800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1600</v>
-      </c>
-      <c r="K10" s="3">
-        <v>2100</v>
       </c>
       <c r="L10" s="3">
         <v>2100</v>
       </c>
       <c r="M10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N10" s="3">
         <v>-600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,67 +965,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
-      </c>
-      <c r="K12" s="3">
-        <v>200</v>
       </c>
       <c r="L12" s="3">
         <v>200</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
       </c>
       <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>100</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>200</v>
       </c>
       <c r="R12" s="3">
         <v>200</v>
       </c>
       <c r="S12" s="3">
+        <v>200</v>
+      </c>
+      <c r="T12" s="3">
         <v>600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1070,25 +1087,28 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>40</v>
@@ -1105,8 +1125,8 @@
       <c r="M14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1129,8 +1149,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1188,8 +1211,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1208,126 +1234,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="3">
         <v>8400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10600</v>
       </c>
-      <c r="F17" s="3">
-        <v>12600</v>
-      </c>
       <c r="G17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="H17" s="3">
         <v>10400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6500</v>
       </c>
-      <c r="F18" s="3">
-        <v>-5100</v>
-      </c>
       <c r="G18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-7200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-1600</v>
       </c>
       <c r="O18" s="3">
         <v>-1600</v>
       </c>
       <c r="P18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1349,28 +1382,29 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4200</v>
       </c>
-      <c r="F20" s="3">
-        <v>20600</v>
-      </c>
       <c r="G20" s="3">
+        <v>20700</v>
+      </c>
+      <c r="H20" s="3">
         <v>5200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
@@ -1379,14 +1413,14 @@
         <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1408,84 +1442,90 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>15700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1500</v>
       </c>
-      <c r="J21" s="3">
-        <v>-800</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="P21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R21" s="3">
         <v>-2000</v>
       </c>
-      <c r="L21" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-900</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1503,7 +1543,7 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1526,67 +1566,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1594,17 +1640,17 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1612,11 +1658,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1644,8 +1690,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1703,126 +1752,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
-        <v>15300</v>
-      </c>
       <c r="G26" s="3">
+        <v>15400</v>
+      </c>
+      <c r="H26" s="3">
         <v>-2200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2200</v>
       </c>
-      <c r="F27" s="3">
-        <v>15300</v>
-      </c>
       <c r="G27" s="3">
+        <v>15400</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2700</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-1600</v>
       </c>
       <c r="O27" s="3">
         <v>-1600</v>
       </c>
       <c r="P27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1880,8 +1938,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +2000,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1998,8 +2062,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2057,28 +2124,31 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-20600</v>
-      </c>
       <c r="G32" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="H32" s="3">
         <v>-5200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
@@ -2087,14 +2157,14 @@
         <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2116,67 +2186,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2200</v>
       </c>
-      <c r="F33" s="3">
-        <v>15300</v>
-      </c>
       <c r="G33" s="3">
+        <v>15400</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-1600</v>
       </c>
       <c r="O33" s="3">
         <v>-1600</v>
       </c>
       <c r="P33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2234,131 +2310,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2200</v>
       </c>
-      <c r="F35" s="3">
-        <v>15300</v>
-      </c>
       <c r="G35" s="3">
+        <v>15400</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-1600</v>
       </c>
       <c r="O35" s="3">
         <v>-1600</v>
       </c>
       <c r="P35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2380,8 +2465,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2403,90 +2489,94 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>37100</v>
+        <v>14400</v>
       </c>
       <c r="E41" s="3">
-        <v>43700</v>
+        <v>37200</v>
       </c>
       <c r="F41" s="3">
-        <v>45900</v>
+        <v>43800</v>
       </c>
       <c r="G41" s="3">
-        <v>47400</v>
+        <v>46000</v>
       </c>
       <c r="H41" s="3">
+        <v>47500</v>
+      </c>
+      <c r="I41" s="3">
         <v>9800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>25400</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2521,111 +2611,117 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>23800</v>
+        <v>21600</v>
       </c>
       <c r="E43" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F43" s="3">
         <v>17000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>19200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>13300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>10500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>900</v>
+      </c>
+      <c r="E44" s="3">
         <v>700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>500</v>
-      </c>
-      <c r="H44" s="3">
-        <v>300</v>
       </c>
       <c r="I44" s="3">
         <v>300</v>
       </c>
       <c r="J44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
         <v>1100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>700</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>400</v>
       </c>
       <c r="R44" s="3">
         <v>400</v>
@@ -2634,176 +2730,185 @@
         <v>400</v>
       </c>
       <c r="T44" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="U44" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>61800</v>
+        <v>69600</v>
       </c>
       <c r="E46" s="3">
-        <v>61400</v>
+        <v>62000</v>
       </c>
       <c r="F46" s="3">
-        <v>63400</v>
+        <v>61500</v>
       </c>
       <c r="G46" s="3">
-        <v>67300</v>
+        <v>63600</v>
       </c>
       <c r="H46" s="3">
+        <v>67500</v>
+      </c>
+      <c r="I46" s="3">
         <v>24000</v>
       </c>
-      <c r="I46" s="3">
-        <v>17800</v>
-      </c>
       <c r="J46" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K46" s="3">
         <v>14100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>200</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>3900</v>
-      </c>
-      <c r="H47" s="3">
-        <v>4300</v>
       </c>
       <c r="I47" s="3">
         <v>4300</v>
       </c>
       <c r="J47" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K47" s="3">
         <v>4300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>300</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
       <c r="R47" s="3">
         <v>0</v>
       </c>
@@ -2811,54 +2916,57 @@
         <v>0</v>
       </c>
       <c r="T47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="E48" s="3">
         <v>4300</v>
       </c>
       <c r="F48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G48" s="3">
         <v>4400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1300</v>
-      </c>
-      <c r="P48" s="3">
-        <v>400</v>
       </c>
       <c r="Q48" s="3">
         <v>400</v>
@@ -2875,28 +2983,31 @@
       <c r="U48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="3">
         <v>1400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1900</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="I49" s="3">
-        <v>200</v>
       </c>
       <c r="J49" s="3">
         <v>200</v>
@@ -2919,8 +3030,8 @@
       <c r="P49" s="3">
         <v>200</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>40</v>
+      <c r="Q49" s="3">
+        <v>200</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>40</v>
@@ -2934,8 +3045,11 @@
       <c r="U49" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2993,8 +3107,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3052,16 +3169,19 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
-      </c>
-      <c r="E52" s="3">
-        <v>200</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
@@ -3072,8 +3192,8 @@
       <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>40</v>
+      <c r="I52" s="3">
+        <v>200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>40</v>
@@ -3087,8 +3207,8 @@
       <c r="M52" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3111,8 +3231,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3170,67 +3293,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>68100</v>
+        <v>73400</v>
       </c>
       <c r="E54" s="3">
-        <v>67500</v>
+        <v>68200</v>
       </c>
       <c r="F54" s="3">
-        <v>69900</v>
+        <v>67700</v>
       </c>
       <c r="G54" s="3">
-        <v>78100</v>
+        <v>70100</v>
       </c>
       <c r="H54" s="3">
-        <v>32700</v>
+        <v>78200</v>
       </c>
       <c r="I54" s="3">
+        <v>32800</v>
+      </c>
+      <c r="J54" s="3">
         <v>26800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>19200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>20900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3252,8 +3381,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3275,249 +3405,262 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="E57" s="3">
         <v>2300</v>
       </c>
       <c r="F57" s="3">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="G57" s="3">
         <v>3000</v>
       </c>
       <c r="H57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I57" s="3">
         <v>2700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2000</v>
       </c>
       <c r="K57" s="3">
         <v>2000</v>
       </c>
       <c r="L57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E58" s="3">
         <v>2900</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2800</v>
       </c>
       <c r="F58" s="3">
         <v>2800</v>
       </c>
       <c r="G58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H58" s="3">
         <v>4000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1500</v>
       </c>
       <c r="N58" s="3">
         <v>1500</v>
       </c>
       <c r="O58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P58" s="3">
         <v>1300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2800</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2900</v>
       </c>
       <c r="J59" s="3">
         <v>2900</v>
       </c>
       <c r="K59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1700</v>
       </c>
       <c r="P59" s="3">
         <v>1700</v>
       </c>
       <c r="Q59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R59" s="3">
         <v>1600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E60" s="3">
         <v>7100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7800</v>
       </c>
-      <c r="G60" s="3">
-        <v>10500</v>
-      </c>
       <c r="H60" s="3">
-        <v>14700</v>
+        <v>10600</v>
       </c>
       <c r="I60" s="3">
+        <v>14800</v>
+      </c>
+      <c r="J60" s="3">
         <v>9000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5600</v>
-      </c>
-      <c r="M60" s="3">
-        <v>4100</v>
       </c>
       <c r="N60" s="3">
         <v>4100</v>
       </c>
       <c r="O60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="P60" s="3">
         <v>5300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>800</v>
@@ -3526,25 +3669,25 @@
         <v>800</v>
       </c>
       <c r="G61" s="3">
+        <v>800</v>
+      </c>
+      <c r="H61" s="3">
         <v>900</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1000</v>
       </c>
       <c r="I61" s="3">
         <v>1000</v>
       </c>
       <c r="J61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1100</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1200</v>
       </c>
       <c r="L61" s="3">
         <v>1200</v>
       </c>
       <c r="M61" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="N61" s="3">
         <v>1400</v>
@@ -3553,7 +3696,7 @@
         <v>1400</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -3570,31 +3713,34 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E62" s="3">
         <v>5200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6400</v>
       </c>
-      <c r="G62" s="3">
-        <v>27000</v>
-      </c>
       <c r="H62" s="3">
+        <v>27100</v>
+      </c>
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>200</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>40</v>
@@ -3611,8 +3757,8 @@
       <c r="O62" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3629,8 +3775,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3688,8 +3837,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3747,8 +3899,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3806,67 +3961,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E66" s="3">
         <v>12100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14000</v>
       </c>
-      <c r="G66" s="3">
-        <v>37400</v>
-      </c>
       <c r="H66" s="3">
+        <v>37500</v>
+      </c>
+      <c r="I66" s="3">
         <v>17100</v>
       </c>
-      <c r="I66" s="3">
-        <v>11600</v>
-      </c>
       <c r="J66" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K66" s="3">
         <v>9600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>7200</v>
       </c>
       <c r="N66" s="3">
         <v>7200</v>
       </c>
       <c r="O66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="P66" s="3">
         <v>8200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3888,8 +4049,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3947,8 +4109,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4006,8 +4171,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4065,8 +4233,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4124,67 +4295,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12600</v>
       </c>
-      <c r="G72" s="3">
-        <v>-27900</v>
-      </c>
       <c r="H72" s="3">
-        <v>-26000</v>
+        <v>-28000</v>
       </c>
       <c r="I72" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="J72" s="3">
         <v>-24800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-22800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-20200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-21300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-18200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-9500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4242,8 +4419,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4301,8 +4481,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4360,67 +4543,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>56000</v>
+        <v>62000</v>
       </c>
       <c r="E76" s="3">
-        <v>58000</v>
+        <v>56100</v>
       </c>
       <c r="F76" s="3">
-        <v>56000</v>
+        <v>58100</v>
       </c>
       <c r="G76" s="3">
+        <v>56100</v>
+      </c>
+      <c r="H76" s="3">
         <v>40700</v>
       </c>
-      <c r="H76" s="3">
-        <v>15600</v>
-      </c>
       <c r="I76" s="3">
+        <v>15700</v>
+      </c>
+      <c r="J76" s="3">
         <v>15200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4478,131 +4667,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2200</v>
       </c>
-      <c r="F81" s="3">
-        <v>15300</v>
-      </c>
       <c r="G81" s="3">
+        <v>15400</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-1600</v>
       </c>
       <c r="O81" s="3">
         <v>-1600</v>
       </c>
       <c r="P81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4624,16 +4822,17 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
-      </c>
-      <c r="E83" s="3">
-        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -4648,7 +4847,7 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -4657,14 +4856,14 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
@@ -4683,8 +4882,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4742,8 +4944,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4801,8 +5006,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4860,8 +5068,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4919,8 +5130,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4978,67 +5192,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>900</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5060,46 +5280,47 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1600</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5119,8 +5340,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5178,8 +5402,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5237,53 +5464,56 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -5296,8 +5526,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5319,8 +5552,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5378,8 +5612,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5437,8 +5674,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5496,8 +5736,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5555,88 +5798,94 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1300</v>
       </c>
-      <c r="G100" s="3">
-        <v>46500</v>
-      </c>
       <c r="H100" s="3">
-        <v>7700</v>
+        <v>46600</v>
       </c>
       <c r="I100" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J100" s="3">
         <v>4300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>8000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E101" s="3">
         <v>1500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -5644,14 +5893,14 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -5673,63 +5922,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1500</v>
       </c>
-      <c r="G102" s="3">
-        <v>37600</v>
-      </c>
       <c r="H102" s="3">
+        <v>37700</v>
+      </c>
+      <c r="I102" s="3">
         <v>5600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6800</v>
-      </c>
-      <c r="O102" s="3">
-        <v>300</v>
       </c>
       <c r="P102" s="3">
         <v>300</v>
       </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
       </c>
       <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
         <v>700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
     </row>
